--- a/www/IndicatorsPerCountry/Portugal_GDPperCapita_TerritorialRef_1946_2012_CCode_620.xlsx
+++ b/www/IndicatorsPerCountry/Portugal_GDPperCapita_TerritorialRef_1946_2012_CCode_620.xlsx
@@ -513,13 +513,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Portugal_GDPperCapita_TerritorialRef_1946_2012_CCode_620.xlsx
+++ b/www/IndicatorsPerCountry/Portugal_GDPperCapita_TerritorialRef_1946_2012_CCode_620.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="490">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,454 +36,1417 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1142</t>
+    <t>1281.11625967325</t>
+  </si>
+  <si>
+    <t>1382.3548736725</t>
+  </si>
+  <si>
+    <t>1416.7594341355</t>
+  </si>
+  <si>
+    <t>1461.5328105105</t>
+  </si>
+  <si>
+    <t>1360.886881536</t>
+  </si>
+  <si>
+    <t>1289.7027936975</t>
+  </si>
+  <si>
+    <t>1355.856221811</t>
+  </si>
+  <si>
+    <t>1274.85938259225</t>
+  </si>
+  <si>
+    <t>1209.875177056</t>
+  </si>
+  <si>
+    <t>1247.61238472325</t>
+  </si>
+  <si>
+    <t>1217.85082585075</t>
+  </si>
+  <si>
+    <t>1260.73667153525</t>
+  </si>
+  <si>
+    <t>1282.0459702505</t>
+  </si>
+  <si>
+    <t>1301.0338407885</t>
+  </si>
+  <si>
+    <t>1274.0546485485</t>
+  </si>
+  <si>
+    <t>1267.15212944775</t>
+  </si>
+  <si>
+    <t>1351.9357508475</t>
+  </si>
+  <si>
+    <t>1384.662561282</t>
+  </si>
+  <si>
+    <t>1396.718671075</t>
+  </si>
+  <si>
+    <t>1361.904961053</t>
+  </si>
+  <si>
+    <t>1330.7799374415</t>
+  </si>
+  <si>
+    <t>1310.0495088135</t>
+  </si>
+  <si>
+    <t>1413.9132244965</t>
+  </si>
+  <si>
+    <t>1630.68135958</t>
+  </si>
+  <si>
+    <t>1518.42590638375</t>
+  </si>
+  <si>
+    <t>1347.503148446</t>
+  </si>
+  <si>
+    <t>1221.429814332</t>
+  </si>
+  <si>
+    <t>1235.05557859775</t>
+  </si>
+  <si>
+    <t>1320.75713754075</t>
+  </si>
+  <si>
+    <t>1353.80684009025</t>
+  </si>
+  <si>
+    <t>1564.727745945</t>
+  </si>
+  <si>
+    <t>1390.47078031225</t>
+  </si>
+  <si>
+    <t>1385.8917027865</t>
+  </si>
+  <si>
+    <t>1389.14256301275</t>
+  </si>
+  <si>
+    <t>1454.108114641</t>
+  </si>
+  <si>
+    <t>1474.5425972095</t>
+  </si>
+  <si>
+    <t>1422.13932289975</t>
+  </si>
+  <si>
+    <t>1456.6747351065</t>
+  </si>
+  <si>
+    <t>1424.50538327825</t>
+  </si>
+  <si>
+    <t>1376.2887513375</t>
+  </si>
+  <si>
+    <t>1433.40991486875</t>
+  </si>
+  <si>
+    <t>1549.31768352725</t>
+  </si>
+  <si>
+    <t>1573.93904192525</t>
+  </si>
+  <si>
+    <t>1703.2443402975</t>
+  </si>
+  <si>
+    <t>1632.66148682</t>
+  </si>
+  <si>
+    <t>1344.58243066875</t>
+  </si>
+  <si>
+    <t>1236.92277274475</t>
+  </si>
+  <si>
+    <t>1222.86740819425</t>
+  </si>
+  <si>
+    <t>1325.80113126825</t>
+  </si>
+  <si>
+    <t>1334.9071241415</t>
+  </si>
+  <si>
+    <t>1154.7009388915</t>
+  </si>
+  <si>
+    <t>1204.58548175875</t>
+  </si>
+  <si>
+    <t>1221.2695307995</t>
+  </si>
+  <si>
+    <t>1256.797220679</t>
+  </si>
+  <si>
+    <t>1308.18048185825</t>
+  </si>
+  <si>
+    <t>1242.36453124875</t>
+  </si>
+  <si>
+    <t>1385.9348741875</t>
+  </si>
+  <si>
+    <t>1367.0257190135</t>
+  </si>
+  <si>
+    <t>1286.611117064</t>
+  </si>
+  <si>
+    <t>1208.49263719275</t>
+  </si>
+  <si>
+    <t>1312.7738788255</t>
+  </si>
+  <si>
+    <t>1163.4255609795</t>
+  </si>
+  <si>
+    <t>1265.2220613305</t>
+  </si>
+  <si>
+    <t>1321.0946187075</t>
+  </si>
+  <si>
+    <t>1425.42294323975</t>
+  </si>
+  <si>
+    <t>1420.22524650825</t>
+  </si>
+  <si>
+    <t>1204.86913148875</t>
+  </si>
+  <si>
+    <t>1081.11838409575</t>
+  </si>
+  <si>
+    <t>1041.830550579</t>
+  </si>
+  <si>
+    <t>1049.342905611</t>
+  </si>
+  <si>
+    <t>1258.480964559</t>
+  </si>
+  <si>
+    <t>1393.82631858925</t>
+  </si>
+  <si>
+    <t>1445.76886752025</t>
+  </si>
+  <si>
+    <t>1299.748903817</t>
+  </si>
+  <si>
+    <t>1281.95933840975</t>
+  </si>
+  <si>
+    <t>1365.54261022725</t>
+  </si>
+  <si>
+    <t>1385.23050554525</t>
+  </si>
+  <si>
+    <t>1350.31796975075</t>
+  </si>
+  <si>
+    <t>1281.2500941695</t>
+  </si>
+  <si>
+    <t>1312.61775219575</t>
+  </si>
+  <si>
+    <t>1471.38870144175</t>
+  </si>
+  <si>
+    <t>1429.334629814</t>
+  </si>
+  <si>
+    <t>1349.08033576225</t>
+  </si>
+  <si>
+    <t>1306.547679983</t>
+  </si>
+  <si>
+    <t>1352.737617595</t>
+  </si>
+  <si>
+    <t>1423.82991166325</t>
+  </si>
+  <si>
+    <t>1462.59210058325</t>
+  </si>
+  <si>
+    <t>1369.62234456775</t>
+  </si>
+  <si>
+    <t>1283.2391387725</t>
+  </si>
+  <si>
+    <t>1283.51742416625</t>
+  </si>
+  <si>
+    <t>1445.86505245</t>
+  </si>
+  <si>
+    <t>1445.6977746575</t>
+  </si>
+  <si>
+    <t>1406.85269436075</t>
+  </si>
+  <si>
+    <t>1341.29745192625</t>
+  </si>
+  <si>
+    <t>1411.847655491</t>
+  </si>
+  <si>
+    <t>1529.9684596105</t>
+  </si>
+  <si>
+    <t>1428.73020487925</t>
+  </si>
+  <si>
+    <t>1328.123907656</t>
+  </si>
+  <si>
+    <t>1255.39811085325</t>
+  </si>
+  <si>
+    <t>1310.0498769995</t>
+  </si>
+  <si>
+    <t>1250.83894037375</t>
+  </si>
+  <si>
+    <t>1146.34217026875</t>
+  </si>
+  <si>
+    <t>1116.460743125</t>
+  </si>
+  <si>
+    <t>1230.1346769985</t>
+  </si>
+  <si>
+    <t>1405.24494298825</t>
+  </si>
+  <si>
+    <t>1307.78926862675</t>
+  </si>
+  <si>
+    <t>1128.94463170125</t>
+  </si>
+  <si>
+    <t>1184.14416800225</t>
+  </si>
+  <si>
+    <t>1333.588717279</t>
+  </si>
+  <si>
+    <t>1435.53640973925</t>
+  </si>
+  <si>
+    <t>1424.66069343325</t>
+  </si>
+  <si>
+    <t>1612.2250569425</t>
+  </si>
+  <si>
+    <t>1503.79633570075</t>
+  </si>
+  <si>
+    <t>1597.5589058975</t>
+  </si>
+  <si>
+    <t>1538.72004574925</t>
+  </si>
+  <si>
+    <t>1575.946036392</t>
+  </si>
+  <si>
+    <t>1511.38493358125</t>
+  </si>
+  <si>
+    <t>1500.403109478</t>
+  </si>
+  <si>
+    <t>1478.94950828625</t>
+  </si>
+  <si>
+    <t>1447.5732644555</t>
+  </si>
+  <si>
+    <t>1321.697347789</t>
+  </si>
+  <si>
+    <t>1258.9450996395</t>
+  </si>
+  <si>
+    <t>1349.471835166</t>
+  </si>
+  <si>
+    <t>1389.381852222</t>
+  </si>
+  <si>
+    <t>1485.2719907935</t>
+  </si>
+  <si>
+    <t>1436.3356213115</t>
+  </si>
+  <si>
+    <t>1436.227388323</t>
+  </si>
+  <si>
+    <t>1489.82450733025</t>
+  </si>
+  <si>
+    <t>1462.02403799725</t>
+  </si>
+  <si>
+    <t>1431.771539562</t>
+  </si>
+  <si>
+    <t>1459.60675230825</t>
+  </si>
+  <si>
+    <t>1490.354397532</t>
+  </si>
+  <si>
+    <t>1347.65254612625</t>
+  </si>
+  <si>
+    <t>1522.28978658575</t>
+  </si>
+  <si>
+    <t>1613.39341527</t>
+  </si>
+  <si>
+    <t>1522.8509834265</t>
+  </si>
+  <si>
+    <t>1483.38582694575</t>
+  </si>
+  <si>
+    <t>1404.998590723</t>
+  </si>
+  <si>
+    <t>1575.91714732725</t>
+  </si>
+  <si>
+    <t>1747.1312260675</t>
+  </si>
+  <si>
+    <t>1717.81583792</t>
+  </si>
+  <si>
+    <t>1640.48878357</t>
+  </si>
+  <si>
+    <t>1692.772224325</t>
+  </si>
+  <si>
+    <t>1692.3783401525</t>
+  </si>
+  <si>
+    <t>1684.967197095</t>
+  </si>
+  <si>
+    <t>1692.98550148</t>
+  </si>
+  <si>
+    <t>1744.1333543725</t>
+  </si>
+  <si>
+    <t>1742.3318514875</t>
+  </si>
+  <si>
+    <t>1700.38412271</t>
+  </si>
+  <si>
+    <t>1561.5953025855</t>
+  </si>
+  <si>
+    <t>1609.2981024575</t>
+  </si>
+  <si>
+    <t>1531.57036029725</t>
+  </si>
+  <si>
+    <t>1682.463175575</t>
+  </si>
+  <si>
+    <t>1673.6729784775</t>
+  </si>
+  <si>
+    <t>1662.8430038675</t>
+  </si>
+  <si>
+    <t>1468.7440709305</t>
+  </si>
+  <si>
+    <t>1545.406123079</t>
+  </si>
+  <si>
+    <t>1672.3682559675</t>
+  </si>
+  <si>
+    <t>2071.1457987675</t>
+  </si>
+  <si>
+    <t>2114.459453015</t>
+  </si>
+  <si>
+    <t>1954.225823095</t>
+  </si>
+  <si>
+    <t>1968.0953148675</t>
+  </si>
+  <si>
+    <t>2009.27264629</t>
+  </si>
+  <si>
+    <t>1871.8900743725</t>
+  </si>
+  <si>
+    <t>1866.7154239825</t>
+  </si>
+  <si>
+    <t>1574.41351137525</t>
+  </si>
+  <si>
+    <t>1559.6092684445</t>
+  </si>
+  <si>
+    <t>1742.6550414</t>
+  </si>
+  <si>
+    <t>1745.579422405</t>
+  </si>
+  <si>
+    <t>1495.765946948</t>
+  </si>
+  <si>
+    <t>1572.1235984545</t>
+  </si>
+  <si>
+    <t>1790.6336903</t>
+  </si>
+  <si>
+    <t>1706.92882633</t>
+  </si>
+  <si>
+    <t>1573.37159914025</t>
+  </si>
+  <si>
+    <t>1540.1621209065</t>
+  </si>
+  <si>
+    <t>1654.54463447</t>
+  </si>
+  <si>
+    <t>1697.9747928325</t>
+  </si>
+  <si>
+    <t>1615.5802474175</t>
+  </si>
+  <si>
+    <t>1585.72863537725</t>
+  </si>
+  <si>
+    <t>1484.76989035375</t>
+  </si>
+  <si>
+    <t>1352.40471327325</t>
+  </si>
+  <si>
+    <t>1267.54504888375</t>
+  </si>
+  <si>
+    <t>1376.24611135375</t>
+  </si>
+  <si>
+    <t>1520.8297225485</t>
+  </si>
+  <si>
+    <t>1590.559734309</t>
+  </si>
+  <si>
+    <t>1613.37466199</t>
+  </si>
+  <si>
+    <t>1624.01288686</t>
+  </si>
+  <si>
+    <t>1758.118818365</t>
+  </si>
+  <si>
+    <t>1815.822304205</t>
+  </si>
+  <si>
+    <t>1775.9855138025</t>
+  </si>
+  <si>
+    <t>1849.8177217975</t>
+  </si>
+  <si>
+    <t>1774.60528609</t>
+  </si>
+  <si>
+    <t>1674.40368277</t>
+  </si>
+  <si>
+    <t>1841.1103968075</t>
+  </si>
+  <si>
+    <t>1816.4743103325</t>
+  </si>
+  <si>
+    <t>1977.70826435</t>
+  </si>
+  <si>
+    <t>1941.2860264525</t>
+  </si>
+  <si>
+    <t>1741.56368841</t>
+  </si>
+  <si>
+    <t>1881.08709152</t>
+  </si>
+  <si>
+    <t>1948.56980773</t>
+  </si>
+  <si>
+    <t>1984.725172885</t>
+  </si>
+  <si>
+    <t>1954.6156623175</t>
+  </si>
+  <si>
+    <t>2078.5728110875</t>
+  </si>
+  <si>
+    <t>1995.1835073625</t>
+  </si>
+  <si>
+    <t>2137.8127823325</t>
+  </si>
+  <si>
+    <t>2012.402937545</t>
+  </si>
+  <si>
+    <t>1944.2086302275</t>
+  </si>
+  <si>
+    <t>2126.791919525</t>
+  </si>
+  <si>
+    <t>2047.25756144</t>
+  </si>
+  <si>
+    <t>1845.9903901075</t>
+  </si>
+  <si>
+    <t>1889.410952065</t>
+  </si>
+  <si>
+    <t>2000.1773246</t>
+  </si>
+  <si>
+    <t>2218.3398730675</t>
+  </si>
+  <si>
+    <t>2009.6225010225</t>
+  </si>
+  <si>
+    <t>1972.091086875</t>
+  </si>
+  <si>
+    <t>2033.3939969525</t>
+  </si>
+  <si>
+    <t>2028.649393225</t>
+  </si>
+  <si>
+    <t>2082.857621845</t>
+  </si>
+  <si>
+    <t>2017.8246404225</t>
+  </si>
+  <si>
+    <t>2028.87224449</t>
+  </si>
+  <si>
+    <t>2184.4487403375</t>
+  </si>
+  <si>
+    <t>2159.1162918325</t>
+  </si>
+  <si>
+    <t>2209.53466825</t>
+  </si>
+  <si>
+    <t>2190.0059363</t>
+  </si>
+  <si>
+    <t>2166.415733755</t>
+  </si>
+  <si>
+    <t>2172.924612495</t>
+  </si>
+  <si>
+    <t>2010.402553705</t>
+  </si>
+  <si>
+    <t>1987.8309539725</t>
+  </si>
+  <si>
+    <t>1976.5295579575</t>
+  </si>
+  <si>
+    <t>2039.605525685</t>
+  </si>
+  <si>
+    <t>2151.82843057</t>
+  </si>
+  <si>
+    <t>2186.7761026475</t>
+  </si>
+  <si>
+    <t>2028.034700965</t>
+  </si>
+  <si>
+    <t>1984.7086284025</t>
+  </si>
+  <si>
+    <t>2032.9490365275</t>
+  </si>
+  <si>
+    <t>2036.0681962075</t>
+  </si>
+  <si>
+    <t>2021.2111872225</t>
+  </si>
+  <si>
+    <t>2080.48801051</t>
+  </si>
+  <si>
+    <t>1863.3380563525</t>
+  </si>
+  <si>
+    <t>1822.68570848</t>
+  </si>
+  <si>
+    <t>1941.35250218</t>
+  </si>
+  <si>
+    <t>1909.646645725</t>
+  </si>
+  <si>
+    <t>1916.40719361</t>
+  </si>
+  <si>
+    <t>1927.2372144025</t>
+  </si>
+  <si>
+    <t>1912.2137318375</t>
+  </si>
+  <si>
+    <t>1976.5408647075</t>
+  </si>
+  <si>
+    <t>1928.7105285175</t>
+  </si>
+  <si>
+    <t>2044.75640642</t>
+  </si>
+  <si>
+    <t>1936.69805784</t>
+  </si>
+  <si>
+    <t>2011.6905278925</t>
+  </si>
+  <si>
+    <t>1886.5986559875</t>
+  </si>
+  <si>
+    <t>1968.898054305</t>
+  </si>
+  <si>
+    <t>1955.4289839175</t>
+  </si>
+  <si>
+    <t>1943.8049505875</t>
+  </si>
+  <si>
+    <t>2109.2380834525</t>
+  </si>
+  <si>
+    <t>2063.010166945</t>
+  </si>
+  <si>
+    <t>2059.2246240475</t>
+  </si>
+  <si>
+    <t>1959.6208707075</t>
+  </si>
+  <si>
+    <t>1998.6620497025</t>
+  </si>
+  <si>
+    <t>1821.72834844</t>
+  </si>
+  <si>
+    <t>1747.59015431</t>
+  </si>
+  <si>
+    <t>1788.9248565825</t>
+  </si>
+  <si>
+    <t>1806.277260515</t>
+  </si>
+  <si>
+    <t>1811.51921951</t>
+  </si>
+  <si>
+    <t>1659.097066445</t>
+  </si>
+  <si>
+    <t>1656.6132489725</t>
+  </si>
+  <si>
+    <t>1744.5472005325</t>
+  </si>
+  <si>
+    <t>1711.04076325</t>
+  </si>
+  <si>
+    <t>1558.4987353845</t>
+  </si>
+  <si>
+    <t>1551.67835838925</t>
+  </si>
+  <si>
+    <t>1458.752128106</t>
+  </si>
+  <si>
+    <t>1391.34143095675</t>
+  </si>
+  <si>
+    <t>1413.84536631975</t>
+  </si>
+  <si>
+    <t>1427.301835414</t>
+  </si>
+  <si>
+    <t>1470.5849302235</t>
+  </si>
+  <si>
+    <t>1444.99068825475</t>
+  </si>
+  <si>
+    <t>1412.2710588805</t>
+  </si>
+  <si>
+    <t>1422.08962161175</t>
+  </si>
+  <si>
+    <t>1446.0949021155</t>
+  </si>
+  <si>
+    <t>1421.00695252425</t>
+  </si>
+  <si>
+    <t>1176.5453996205</t>
+  </si>
+  <si>
+    <t>1072.3851056555</t>
+  </si>
+  <si>
+    <t>1114.223426498</t>
+  </si>
+  <si>
+    <t>1226.887726519</t>
+  </si>
+  <si>
+    <t>1265.51400050075</t>
+  </si>
+  <si>
+    <t>1326.918447582</t>
+  </si>
+  <si>
+    <t>1372.19171464375</t>
+  </si>
+  <si>
+    <t>1377.90711560775</t>
+  </si>
+  <si>
+    <t>1464.7978495605</t>
+  </si>
+  <si>
+    <t>1611.277075135</t>
+  </si>
+  <si>
+    <t>1665.42619334</t>
+  </si>
+  <si>
+    <t>1648.1022760475</t>
+  </si>
+  <si>
+    <t>1636.75552404</t>
+  </si>
+  <si>
+    <t>1605.4578428525</t>
+  </si>
+  <si>
+    <t>1538.129012147</t>
+  </si>
+  <si>
+    <t>1502.63334186875</t>
+  </si>
+  <si>
+    <t>1558.14648855775</t>
+  </si>
+  <si>
+    <t>1476.53411544275</t>
+  </si>
+  <si>
+    <t>1490.422637431</t>
+  </si>
+  <si>
+    <t>1646.8715092375</t>
+  </si>
+  <si>
+    <t>1721.017262965</t>
+  </si>
+  <si>
+    <t>1602.960785335</t>
+  </si>
+  <si>
+    <t>1525.343423331</t>
+  </si>
+  <si>
+    <t>1420.91993227275</t>
+  </si>
+  <si>
+    <t>1465.94411115425</t>
+  </si>
+  <si>
+    <t>1444.28261880175</t>
+  </si>
+  <si>
+    <t>1431.16937183675</t>
+  </si>
+  <si>
+    <t>1572.948715702</t>
+  </si>
+  <si>
+    <t>1589.91857804325</t>
+  </si>
+  <si>
+    <t>1628.55086212</t>
+  </si>
+  <si>
+    <t>1502.783535799</t>
+  </si>
+  <si>
+    <t>1474.49870456525</t>
+  </si>
+  <si>
+    <t>1518.952175559</t>
+  </si>
+  <si>
+    <t>1537.79790926125</t>
+  </si>
+  <si>
+    <t>1636.23739461</t>
+  </si>
+  <si>
+    <t>1633.917316395</t>
+  </si>
+  <si>
+    <t>1524.3385313065</t>
+  </si>
+  <si>
+    <t>1409.71562206475</t>
+  </si>
+  <si>
+    <t>1496.48281321175</t>
+  </si>
+  <si>
+    <t>1520.168077337</t>
+  </si>
+  <si>
+    <t>1469.8775</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1164</t>
-  </si>
-  <si>
-    <t>975</t>
-  </si>
-  <si>
-    <t>1248</t>
-  </si>
-  <si>
-    <t>1024</t>
-  </si>
-  <si>
-    <t>923</t>
-  </si>
-  <si>
-    <t>991</t>
-  </si>
-  <si>
-    <t>919</t>
-  </si>
-  <si>
-    <t>883</t>
-  </si>
-  <si>
-    <t>891</t>
-  </si>
-  <si>
-    <t>920</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>945</t>
-  </si>
-  <si>
-    <t>964</t>
-  </si>
-  <si>
-    <t>933</t>
-  </si>
-  <si>
-    <t>954</t>
-  </si>
-  <si>
-    <t>988</t>
-  </si>
-  <si>
-    <t>966</t>
-  </si>
-  <si>
-    <t>959</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>947</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>992</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1034</t>
-  </si>
-  <si>
-    <t>1052</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>1118</t>
-  </si>
-  <si>
-    <t>1088</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1099</t>
-  </si>
-  <si>
-    <t>1087</t>
-  </si>
-  <si>
-    <t>1101</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>1117</t>
-  </si>
-  <si>
-    <t>1125</t>
-  </si>
-  <si>
-    <t>1182</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>1249</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>1269</t>
-  </si>
-  <si>
-    <t>1266</t>
-  </si>
-  <si>
-    <t>1273</t>
-  </si>
-  <si>
-    <t>1279</t>
-  </si>
-  <si>
-    <t>1233</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>1219</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>1228</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1250</t>
-  </si>
-  <si>
-    <t>1258</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>1150</t>
-  </si>
-  <si>
-    <t>1173</t>
-  </si>
-  <si>
-    <t>1229</t>
-  </si>
-  <si>
-    <t>1290</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>1473</t>
-  </si>
-  <si>
-    <t>1401</t>
-  </si>
-  <si>
-    <t>1446</t>
-  </si>
-  <si>
-    <t>1419</t>
+    <t>1465</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1466</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>1506</t>
+  </si>
+  <si>
+    <t>1537</t>
+  </si>
+  <si>
+    <t>1554</t>
+  </si>
+  <si>
+    <t>1487</t>
+  </si>
+  <si>
+    <t>1521</t>
+  </si>
+  <si>
+    <t>1575</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1486</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1510</t>
+  </si>
+  <si>
+    <t>1546</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>1607</t>
   </si>
   <si>
     <t>1648</t>
   </si>
   <si>
-    <t>1470</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1571</t>
-  </si>
-  <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>1732</t>
-  </si>
-  <si>
-    <t>1784</t>
-  </si>
-  <si>
-    <t>1669</t>
-  </si>
-  <si>
-    <t>1523</t>
-  </si>
-  <si>
-    <t>1757</t>
-  </si>
-  <si>
-    <t>1747</t>
-  </si>
-  <si>
-    <t>1749</t>
-  </si>
-  <si>
-    <t>1615</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1893</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1928</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>2046</t>
-  </si>
-  <si>
-    <t>2057</t>
-  </si>
-  <si>
-    <t>2086</t>
-  </si>
-  <si>
-    <t>2168</t>
-  </si>
-  <si>
-    <t>2161</t>
-  </si>
-  <si>
-    <t>2298</t>
-  </si>
-  <si>
-    <t>2393</t>
-  </si>
-  <si>
-    <t>2475</t>
-  </si>
-  <si>
-    <t>2564</t>
-  </si>
-  <si>
-    <t>2659</t>
-  </si>
-  <si>
-    <t>2672</t>
-  </si>
-  <si>
-    <t>2794</t>
-  </si>
-  <si>
-    <t>2956</t>
-  </si>
-  <si>
-    <t>3119</t>
-  </si>
-  <si>
-    <t>3330</t>
-  </si>
-  <si>
-    <t>3504</t>
-  </si>
-  <si>
-    <t>3718</t>
-  </si>
-  <si>
-    <t>3992</t>
-  </si>
-  <si>
-    <t>4164</t>
-  </si>
-  <si>
-    <t>4481</t>
-  </si>
-  <si>
-    <t>4873</t>
-  </si>
-  <si>
-    <t>4987</t>
-  </si>
-  <si>
-    <t>5473</t>
-  </si>
-  <si>
-    <t>5871</t>
-  </si>
-  <si>
-    <t>6355</t>
-  </si>
-  <si>
-    <t>7063</t>
-  </si>
-  <si>
-    <t>7048</t>
-  </si>
-  <si>
-    <t>6517</t>
-  </si>
-  <si>
-    <t>6814</t>
-  </si>
-  <si>
-    <t>7166</t>
-  </si>
-  <si>
-    <t>7340</t>
-  </si>
-  <si>
-    <t>7733</t>
-  </si>
-  <si>
-    <t>8044</t>
-  </si>
-  <si>
-    <t>8114</t>
-  </si>
-  <si>
-    <t>8280</t>
-  </si>
-  <si>
-    <t>8255</t>
-  </si>
-  <si>
-    <t>8089</t>
-  </si>
-  <si>
-    <t>8306</t>
-  </si>
-  <si>
-    <t>8641</t>
-  </si>
-  <si>
-    <t>9185</t>
-  </si>
-  <si>
-    <t>9868</t>
-  </si>
-  <si>
-    <t>10372</t>
-  </si>
-  <si>
-    <t>10826.3988898</t>
-  </si>
-  <si>
-    <t>11303.5101285</t>
-  </si>
-  <si>
-    <t>11416.6804329</t>
-  </si>
-  <si>
-    <t>11138.3601045</t>
-  </si>
-  <si>
-    <t>11178.695193</t>
-  </si>
-  <si>
-    <t>11613.6183454</t>
-  </si>
-  <si>
-    <t>12000.9762454</t>
-  </si>
-  <si>
-    <t>12460.1503286</t>
-  </si>
-  <si>
-    <t>13012.7444662</t>
-  </si>
-  <si>
-    <t>13465.6649856</t>
-  </si>
-  <si>
-    <t>13922.2173846</t>
-  </si>
-  <si>
-    <t>14127.2592486</t>
-  </si>
-  <si>
-    <t>14170.9384917</t>
-  </si>
-  <si>
-    <t>13980.0695804</t>
-  </si>
-  <si>
-    <t>14138.5974164</t>
-  </si>
-  <si>
-    <t>14191.465057</t>
-  </si>
-  <si>
-    <t>14343.1627957</t>
-  </si>
-  <si>
-    <t>14631.4179298</t>
-  </si>
-  <si>
-    <t>14583.4890432</t>
-  </si>
-  <si>
-    <t>14118.3441789</t>
-  </si>
-  <si>
-    <t>14279.0475206</t>
+    <t>1677</t>
+  </si>
+  <si>
+    <t>1753</t>
+  </si>
+  <si>
+    <t>1776</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1734</t>
+  </si>
+  <si>
+    <t>1798</t>
+  </si>
+  <si>
+    <t>1752</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1755</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1793</t>
+  </si>
+  <si>
+    <t>1884</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>2075</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>1833</t>
+  </si>
+  <si>
+    <t>1870</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>2056</t>
+  </si>
+  <si>
+    <t>2279</t>
+  </si>
+  <si>
+    <t>2348</t>
+  </si>
+  <si>
+    <t>2233</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>2627</t>
+  </si>
+  <si>
+    <t>2343</t>
+  </si>
+  <si>
+    <t>2566</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>2619</t>
+  </si>
+  <si>
+    <t>2761</t>
+  </si>
+  <si>
+    <t>2844</t>
+  </si>
+  <si>
+    <t>2660</t>
+  </si>
+  <si>
+    <t>2428</t>
+  </si>
+  <si>
+    <t>2801</t>
+  </si>
+  <si>
+    <t>2785</t>
+  </si>
+  <si>
+    <t>2788</t>
+  </si>
+  <si>
+    <t>2574</t>
+  </si>
+  <si>
+    <t>2723</t>
+  </si>
+  <si>
+    <t>2879</t>
+  </si>
+  <si>
+    <t>3017</t>
+  </si>
+  <si>
+    <t>2876</t>
+  </si>
+  <si>
+    <t>3073</t>
+  </si>
+  <si>
+    <t>3301</t>
+  </si>
+  <si>
+    <t>3261</t>
+  </si>
+  <si>
+    <t>3279</t>
+  </si>
+  <si>
+    <t>3325</t>
+  </si>
+  <si>
+    <t>3456</t>
+  </si>
+  <si>
+    <t>3445</t>
+  </si>
+  <si>
+    <t>3663</t>
+  </si>
+  <si>
+    <t>3814</t>
+  </si>
+  <si>
+    <t>3945</t>
+  </si>
+  <si>
+    <t>4087</t>
+  </si>
+  <si>
+    <t>4238</t>
+  </si>
+  <si>
+    <t>4259</t>
+  </si>
+  <si>
+    <t>4454</t>
+  </si>
+  <si>
+    <t>4712</t>
+  </si>
+  <si>
+    <t>4972</t>
+  </si>
+  <si>
+    <t>5308</t>
+  </si>
+  <si>
+    <t>5585</t>
+  </si>
+  <si>
+    <t>5926</t>
+  </si>
+  <si>
+    <t>6363</t>
+  </si>
+  <si>
+    <t>6637</t>
+  </si>
+  <si>
+    <t>7143</t>
+  </si>
+  <si>
+    <t>7767</t>
+  </si>
+  <si>
+    <t>7949</t>
+  </si>
+  <si>
+    <t>8724</t>
+  </si>
+  <si>
+    <t>9358</t>
+  </si>
+  <si>
+    <t>10130</t>
+  </si>
+  <si>
+    <t>11258</t>
+  </si>
+  <si>
+    <t>11234</t>
+  </si>
+  <si>
+    <t>10388</t>
+  </si>
+  <si>
+    <t>10861</t>
+  </si>
+  <si>
+    <t>11422</t>
+  </si>
+  <si>
+    <t>11700</t>
+  </si>
+  <si>
+    <t>12326</t>
+  </si>
+  <si>
+    <t>12822</t>
+  </si>
+  <si>
+    <t>12934</t>
+  </si>
+  <si>
+    <t>13198</t>
+  </si>
+  <si>
+    <t>13158</t>
+  </si>
+  <si>
+    <t>12894</t>
+  </si>
+  <si>
+    <t>13240</t>
+  </si>
+  <si>
+    <t>13774</t>
+  </si>
+  <si>
+    <t>14641</t>
+  </si>
+  <si>
+    <t>15729</t>
+  </si>
+  <si>
+    <t>16533</t>
+  </si>
+  <si>
+    <t>17256</t>
+  </si>
+  <si>
+    <t>17949.808301173</t>
+  </si>
+  <si>
+    <t>18598.5281107458</t>
+  </si>
+  <si>
+    <t>18519.9331840567</t>
+  </si>
+  <si>
+    <t>18819.0264179319</t>
+  </si>
+  <si>
+    <t>19262.0303213884</t>
+  </si>
+  <si>
+    <t>19939.3112914324</t>
+  </si>
+  <si>
+    <t>20810.1786053544</t>
+  </si>
+  <si>
+    <t>21782.1186965727</t>
+  </si>
+  <si>
+    <t>22589.9216179509</t>
+  </si>
+  <si>
+    <t>23372.0401422301</t>
+  </si>
+  <si>
+    <t>23751.3717255471</t>
+  </si>
+  <si>
+    <t>23896.4596400125</t>
+  </si>
+  <si>
+    <t>23677.5188524351</t>
+  </si>
+  <si>
+    <t>24142.7665709259</t>
+  </si>
+  <si>
+    <t>24377.9498732741</t>
+  </si>
+  <si>
+    <t>24809.0395891879</t>
+  </si>
+  <si>
+    <t>25477.2059958743</t>
+  </si>
+  <si>
+    <t>25590.8804355362</t>
+  </si>
+  <si>
+    <t>24902.4569203544</t>
+  </si>
+  <si>
+    <t>25463.1631021506</t>
+  </si>
+  <si>
+    <t>25133</t>
+  </si>
+  <si>
+    <t>24218</t>
+  </si>
+  <si>
+    <t>24076</t>
+  </si>
+  <si>
+    <t>24423</t>
+  </si>
+  <si>
+    <t>24915</t>
+  </si>
+  <si>
+    <t>25346</t>
   </si>
   <si>
     <t>Description</t>
@@ -598,7 +1561,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1550.0</v>
+        <v>1530.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -615,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>1551.0</v>
+        <v>1531.0</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -632,10 +1595,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1552.0</v>
+        <v>1532.0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -649,10 +1612,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1553.0</v>
+        <v>1533.0</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1554.0</v>
+        <v>1534.0</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -683,10 +1646,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>1555.0</v>
+        <v>1535.0</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -700,10 +1663,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1556.0</v>
+        <v>1536.0</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -717,10 +1680,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1557.0</v>
+        <v>1537.0</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -734,10 +1697,10 @@
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>1558.0</v>
+        <v>1538.0</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -751,10 +1714,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1559.0</v>
+        <v>1539.0</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12">
@@ -768,10 +1731,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>1560.0</v>
+        <v>1540.0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -785,10 +1748,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>1561.0</v>
+        <v>1541.0</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
@@ -802,10 +1765,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>1562.0</v>
+        <v>1542.0</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -819,10 +1782,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>1563.0</v>
+        <v>1543.0</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -836,10 +1799,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>1564.0</v>
+        <v>1544.0</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
@@ -853,10 +1816,10 @@
         <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>1565.0</v>
+        <v>1545.0</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -870,10 +1833,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>1566.0</v>
+        <v>1546.0</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -887,10 +1850,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>1567.0</v>
+        <v>1547.0</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20">
@@ -904,10 +1867,10 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>1568.0</v>
+        <v>1548.0</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
@@ -921,10 +1884,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>1569.0</v>
+        <v>1549.0</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -938,10 +1901,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>1570.0</v>
+        <v>1550.0</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -955,10 +1918,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>1571.0</v>
+        <v>1551.0</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -972,10 +1935,10 @@
         <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>1572.0</v>
+        <v>1552.0</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -989,10 +1952,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>1573.0</v>
+        <v>1553.0</v>
       </c>
       <c r="E25" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -1006,10 +1969,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>1574.0</v>
+        <v>1554.0</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
@@ -1023,10 +1986,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>1575.0</v>
+        <v>1555.0</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28">
@@ -1040,10 +2003,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>1576.0</v>
+        <v>1556.0</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29">
@@ -1057,10 +2020,10 @@
         <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1577.0</v>
+        <v>1557.0</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30">
@@ -1074,10 +2037,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>1578.0</v>
+        <v>1558.0</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
@@ -1091,10 +2054,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>1579.0</v>
+        <v>1559.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32">
@@ -1108,10 +2071,10 @@
         <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>1580.0</v>
+        <v>1560.0</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -1125,10 +2088,10 @@
         <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>1581.0</v>
+        <v>1561.0</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -1142,10 +2105,10 @@
         <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>1582.0</v>
+        <v>1562.0</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -1159,10 +2122,10 @@
         <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>1583.0</v>
+        <v>1563.0</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -1176,10 +2139,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>1584.0</v>
+        <v>1564.0</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
@@ -1193,10 +2156,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>1585.0</v>
+        <v>1565.0</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38">
@@ -1210,10 +2173,10 @@
         <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>1586.0</v>
+        <v>1566.0</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39">
@@ -1227,10 +2190,10 @@
         <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>1587.0</v>
+        <v>1567.0</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40">
@@ -1244,10 +2207,10 @@
         <v>6</v>
       </c>
       <c r="D40" t="n">
-        <v>1588.0</v>
+        <v>1568.0</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41">
@@ -1261,10 +2224,10 @@
         <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>1589.0</v>
+        <v>1569.0</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42">
@@ -1278,10 +2241,10 @@
         <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>1590.0</v>
+        <v>1570.0</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43">
@@ -1295,10 +2258,10 @@
         <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>1591.0</v>
+        <v>1571.0</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1312,10 +2275,10 @@
         <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>1592.0</v>
+        <v>1572.0</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45">
@@ -1329,10 +2292,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>1593.0</v>
+        <v>1573.0</v>
       </c>
       <c r="E45" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46">
@@ -1346,10 +2309,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>1594.0</v>
+        <v>1574.0</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47">
@@ -1363,10 +2326,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>1595.0</v>
+        <v>1575.0</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48">
@@ -1380,10 +2343,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>1596.0</v>
+        <v>1576.0</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49">
@@ -1397,10 +2360,10 @@
         <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>1597.0</v>
+        <v>1577.0</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1414,10 +2377,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>1598.0</v>
+        <v>1578.0</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51">
@@ -1431,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>1599.0</v>
+        <v>1579.0</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -1448,10 +2411,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>1600.0</v>
+        <v>1580.0</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -1465,10 +2428,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>1601.0</v>
+        <v>1581.0</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54">
@@ -1482,10 +2445,10 @@
         <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>1602.0</v>
+        <v>1582.0</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55">
@@ -1499,10 +2462,10 @@
         <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>1603.0</v>
+        <v>1583.0</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
@@ -1516,10 +2479,10 @@
         <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>1604.0</v>
+        <v>1584.0</v>
       </c>
       <c r="E56" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
@@ -1533,10 +2496,10 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>1605.0</v>
+        <v>1585.0</v>
       </c>
       <c r="E57" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
@@ -1550,10 +2513,10 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>1606.0</v>
+        <v>1586.0</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59">
@@ -1567,10 +2530,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>1607.0</v>
+        <v>1587.0</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
@@ -1584,10 +2547,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>1608.0</v>
+        <v>1588.0</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61">
@@ -1601,10 +2564,10 @@
         <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>1609.0</v>
+        <v>1589.0</v>
       </c>
       <c r="E61" t="s">
-        <v>8</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62">
@@ -1618,10 +2581,10 @@
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>1610.0</v>
+        <v>1590.0</v>
       </c>
       <c r="E62" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63">
@@ -1635,10 +2598,10 @@
         <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>1611.0</v>
+        <v>1591.0</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64">
@@ -1652,10 +2615,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>1612.0</v>
+        <v>1592.0</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65">
@@ -1669,10 +2632,10 @@
         <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>1613.0</v>
+        <v>1593.0</v>
       </c>
       <c r="E65" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
@@ -1686,10 +2649,10 @@
         <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>1614.0</v>
+        <v>1594.0</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67">
@@ -1703,10 +2666,10 @@
         <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>1615.0</v>
+        <v>1595.0</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68">
@@ -1720,10 +2683,10 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1616.0</v>
+        <v>1596.0</v>
       </c>
       <c r="E68" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
@@ -1737,10 +2700,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1617.0</v>
+        <v>1597.0</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
     </row>
     <row r="70">
@@ -1754,10 +2717,10 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>1618.0</v>
+        <v>1598.0</v>
       </c>
       <c r="E70" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71">
@@ -1771,10 +2734,10 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>1619.0</v>
+        <v>1599.0</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -1788,10 +2751,10 @@
         <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>1620.0</v>
+        <v>1600.0</v>
       </c>
       <c r="E72" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
     </row>
     <row r="73">
@@ -1805,10 +2768,10 @@
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>1621.0</v>
+        <v>1601.0</v>
       </c>
       <c r="E73" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74">
@@ -1822,10 +2785,10 @@
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>1622.0</v>
+        <v>1602.0</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75">
@@ -1839,10 +2802,10 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>1623.0</v>
+        <v>1603.0</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -1856,10 +2819,10 @@
         <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>1624.0</v>
+        <v>1604.0</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77">
@@ -1873,10 +2836,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="n">
-        <v>1625.0</v>
+        <v>1605.0</v>
       </c>
       <c r="E77" t="s">
-        <v>8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78">
@@ -1890,10 +2853,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>1626.0</v>
+        <v>1606.0</v>
       </c>
       <c r="E78" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79">
@@ -1907,10 +2870,10 @@
         <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>1627.0</v>
+        <v>1607.0</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
@@ -1924,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>1628.0</v>
+        <v>1608.0</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
@@ -1941,10 +2904,10 @@
         <v>6</v>
       </c>
       <c r="D81" t="n">
-        <v>1629.0</v>
+        <v>1609.0</v>
       </c>
       <c r="E81" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -1958,10 +2921,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>1630.0</v>
+        <v>1610.0</v>
       </c>
       <c r="E82" t="s">
-        <v>8</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83">
@@ -1975,10 +2938,10 @@
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>1631.0</v>
+        <v>1611.0</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84">
@@ -1992,10 +2955,10 @@
         <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>1632.0</v>
+        <v>1612.0</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85">
@@ -2009,10 +2972,10 @@
         <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>1633.0</v>
+        <v>1613.0</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86">
@@ -2026,10 +2989,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>1634.0</v>
+        <v>1614.0</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
     </row>
     <row r="87">
@@ -2043,10 +3006,10 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>1635.0</v>
+        <v>1615.0</v>
       </c>
       <c r="E87" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
@@ -2060,10 +3023,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>1636.0</v>
+        <v>1616.0</v>
       </c>
       <c r="E88" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
@@ -2077,10 +3040,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="n">
-        <v>1637.0</v>
+        <v>1617.0</v>
       </c>
       <c r="E89" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -2094,10 +3057,10 @@
         <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>1638.0</v>
+        <v>1618.0</v>
       </c>
       <c r="E90" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91">
@@ -2111,10 +3074,10 @@
         <v>6</v>
       </c>
       <c r="D91" t="n">
-        <v>1639.0</v>
+        <v>1619.0</v>
       </c>
       <c r="E91" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
@@ -2128,10 +3091,10 @@
         <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>1640.0</v>
+        <v>1620.0</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
@@ -2145,10 +3108,10 @@
         <v>6</v>
       </c>
       <c r="D93" t="n">
-        <v>1641.0</v>
+        <v>1621.0</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
@@ -2162,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="D94" t="n">
-        <v>1642.0</v>
+        <v>1622.0</v>
       </c>
       <c r="E94" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95">
@@ -2179,10 +3142,10 @@
         <v>6</v>
       </c>
       <c r="D95" t="n">
-        <v>1643.0</v>
+        <v>1623.0</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -2196,10 +3159,10 @@
         <v>6</v>
       </c>
       <c r="D96" t="n">
-        <v>1644.0</v>
+        <v>1624.0</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="97">
@@ -2213,10 +3176,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>1645.0</v>
+        <v>1625.0</v>
       </c>
       <c r="E97" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
     </row>
     <row r="98">
@@ -2230,10 +3193,10 @@
         <v>6</v>
       </c>
       <c r="D98" t="n">
-        <v>1646.0</v>
+        <v>1626.0</v>
       </c>
       <c r="E98" t="s">
-        <v>8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="99">
@@ -2247,10 +3210,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>1647.0</v>
+        <v>1627.0</v>
       </c>
       <c r="E99" t="s">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100">
@@ -2264,10 +3227,10 @@
         <v>6</v>
       </c>
       <c r="D100" t="n">
-        <v>1648.0</v>
+        <v>1628.0</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
     </row>
     <row r="101">
@@ -2281,10 +3244,10 @@
         <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>1649.0</v>
+        <v>1629.0</v>
       </c>
       <c r="E101" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102">
@@ -2298,10 +3261,10 @@
         <v>6</v>
       </c>
       <c r="D102" t="n">
-        <v>1650.0</v>
+        <v>1630.0</v>
       </c>
       <c r="E102" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103">
@@ -2315,10 +3278,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>1651.0</v>
+        <v>1631.0</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104">
@@ -2332,10 +3295,10 @@
         <v>6</v>
       </c>
       <c r="D104" t="n">
-        <v>1652.0</v>
+        <v>1632.0</v>
       </c>
       <c r="E104" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105">
@@ -2349,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="D105" t="n">
-        <v>1653.0</v>
+        <v>1633.0</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106">
@@ -2366,10 +3329,10 @@
         <v>6</v>
       </c>
       <c r="D106" t="n">
-        <v>1654.0</v>
+        <v>1634.0</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="107">
@@ -2383,10 +3346,10 @@
         <v>6</v>
       </c>
       <c r="D107" t="n">
-        <v>1655.0</v>
+        <v>1635.0</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>112</v>
       </c>
     </row>
     <row r="108">
@@ -2400,10 +3363,10 @@
         <v>6</v>
       </c>
       <c r="D108" t="n">
-        <v>1656.0</v>
+        <v>1636.0</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109">
@@ -2417,10 +3380,10 @@
         <v>6</v>
       </c>
       <c r="D109" t="n">
-        <v>1657.0</v>
+        <v>1637.0</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110">
@@ -2434,10 +3397,10 @@
         <v>6</v>
       </c>
       <c r="D110" t="n">
-        <v>1658.0</v>
+        <v>1638.0</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111">
@@ -2451,10 +3414,10 @@
         <v>6</v>
       </c>
       <c r="D111" t="n">
-        <v>1659.0</v>
+        <v>1639.0</v>
       </c>
       <c r="E111" t="s">
-        <v>8</v>
+        <v>116</v>
       </c>
     </row>
     <row r="112">
@@ -2468,10 +3431,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="n">
-        <v>1660.0</v>
+        <v>1640.0</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113">
@@ -2485,10 +3448,10 @@
         <v>6</v>
       </c>
       <c r="D113" t="n">
-        <v>1661.0</v>
+        <v>1641.0</v>
       </c>
       <c r="E113" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="114">
@@ -2502,10 +3465,10 @@
         <v>6</v>
       </c>
       <c r="D114" t="n">
-        <v>1662.0</v>
+        <v>1642.0</v>
       </c>
       <c r="E114" t="s">
-        <v>8</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115">
@@ -2519,10 +3482,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>1663.0</v>
+        <v>1643.0</v>
       </c>
       <c r="E115" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
@@ -2536,10 +3499,10 @@
         <v>6</v>
       </c>
       <c r="D116" t="n">
-        <v>1664.0</v>
+        <v>1644.0</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>121</v>
       </c>
     </row>
     <row r="117">
@@ -2553,10 +3516,10 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>1665.0</v>
+        <v>1645.0</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118">
@@ -2570,10 +3533,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="n">
-        <v>1666.0</v>
+        <v>1646.0</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119">
@@ -2587,10 +3550,10 @@
         <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>1667.0</v>
+        <v>1647.0</v>
       </c>
       <c r="E119" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="120">
@@ -2604,10 +3567,10 @@
         <v>6</v>
       </c>
       <c r="D120" t="n">
-        <v>1668.0</v>
+        <v>1648.0</v>
       </c>
       <c r="E120" t="s">
-        <v>8</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121">
@@ -2621,10 +3584,10 @@
         <v>6</v>
       </c>
       <c r="D121" t="n">
-        <v>1669.0</v>
+        <v>1649.0</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122">
@@ -2638,10 +3601,10 @@
         <v>6</v>
       </c>
       <c r="D122" t="n">
-        <v>1670.0</v>
+        <v>1650.0</v>
       </c>
       <c r="E122" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
     </row>
     <row r="123">
@@ -2655,10 +3618,10 @@
         <v>6</v>
       </c>
       <c r="D123" t="n">
-        <v>1671.0</v>
+        <v>1651.0</v>
       </c>
       <c r="E123" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
     </row>
     <row r="124">
@@ -2672,10 +3635,10 @@
         <v>6</v>
       </c>
       <c r="D124" t="n">
-        <v>1672.0</v>
+        <v>1652.0</v>
       </c>
       <c r="E124" t="s">
-        <v>8</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125">
@@ -2689,10 +3652,10 @@
         <v>6</v>
       </c>
       <c r="D125" t="n">
-        <v>1673.0</v>
+        <v>1653.0</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>130</v>
       </c>
     </row>
     <row r="126">
@@ -2706,10 +3669,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="n">
-        <v>1674.0</v>
+        <v>1654.0</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>131</v>
       </c>
     </row>
     <row r="127">
@@ -2723,10 +3686,10 @@
         <v>6</v>
       </c>
       <c r="D127" t="n">
-        <v>1675.0</v>
+        <v>1655.0</v>
       </c>
       <c r="E127" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
     </row>
     <row r="128">
@@ -2740,10 +3703,10 @@
         <v>6</v>
       </c>
       <c r="D128" t="n">
-        <v>1676.0</v>
+        <v>1656.0</v>
       </c>
       <c r="E128" t="s">
-        <v>8</v>
+        <v>133</v>
       </c>
     </row>
     <row r="129">
@@ -2757,10 +3720,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="n">
-        <v>1677.0</v>
+        <v>1657.0</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>134</v>
       </c>
     </row>
     <row r="130">
@@ -2774,10 +3737,10 @@
         <v>6</v>
       </c>
       <c r="D130" t="n">
-        <v>1678.0</v>
+        <v>1658.0</v>
       </c>
       <c r="E130" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
     </row>
     <row r="131">
@@ -2791,10 +3754,10 @@
         <v>6</v>
       </c>
       <c r="D131" t="n">
-        <v>1679.0</v>
+        <v>1659.0</v>
       </c>
       <c r="E131" t="s">
-        <v>8</v>
+        <v>136</v>
       </c>
     </row>
     <row r="132">
@@ -2808,10 +3771,10 @@
         <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1680.0</v>
+        <v>1660.0</v>
       </c>
       <c r="E132" t="s">
-        <v>8</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
@@ -2825,10 +3788,10 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>1681.0</v>
+        <v>1661.0</v>
       </c>
       <c r="E133" t="s">
-        <v>8</v>
+        <v>138</v>
       </c>
     </row>
     <row r="134">
@@ -2842,10 +3805,10 @@
         <v>6</v>
       </c>
       <c r="D134" t="n">
-        <v>1682.0</v>
+        <v>1662.0</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
@@ -2859,10 +3822,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>1683.0</v>
+        <v>1663.0</v>
       </c>
       <c r="E135" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
     </row>
     <row r="136">
@@ -2876,10 +3839,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="n">
-        <v>1684.0</v>
+        <v>1664.0</v>
       </c>
       <c r="E136" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="137">
@@ -2893,10 +3856,10 @@
         <v>6</v>
       </c>
       <c r="D137" t="n">
-        <v>1685.0</v>
+        <v>1665.0</v>
       </c>
       <c r="E137" t="s">
-        <v>8</v>
+        <v>142</v>
       </c>
     </row>
     <row r="138">
@@ -2910,10 +3873,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="n">
-        <v>1686.0</v>
+        <v>1666.0</v>
       </c>
       <c r="E138" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
     </row>
     <row r="139">
@@ -2927,10 +3890,10 @@
         <v>6</v>
       </c>
       <c r="D139" t="n">
-        <v>1687.0</v>
+        <v>1667.0</v>
       </c>
       <c r="E139" t="s">
-        <v>8</v>
+        <v>144</v>
       </c>
     </row>
     <row r="140">
@@ -2944,10 +3907,10 @@
         <v>6</v>
       </c>
       <c r="D140" t="n">
-        <v>1688.0</v>
+        <v>1668.0</v>
       </c>
       <c r="E140" t="s">
-        <v>8</v>
+        <v>145</v>
       </c>
     </row>
     <row r="141">
@@ -2961,10 +3924,10 @@
         <v>6</v>
       </c>
       <c r="D141" t="n">
-        <v>1689.0</v>
+        <v>1669.0</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142">
@@ -2978,10 +3941,10 @@
         <v>6</v>
       </c>
       <c r="D142" t="n">
-        <v>1690.0</v>
+        <v>1670.0</v>
       </c>
       <c r="E142" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
     </row>
     <row r="143">
@@ -2995,10 +3958,10 @@
         <v>6</v>
       </c>
       <c r="D143" t="n">
-        <v>1691.0</v>
+        <v>1671.0</v>
       </c>
       <c r="E143" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144">
@@ -3012,10 +3975,10 @@
         <v>6</v>
       </c>
       <c r="D144" t="n">
-        <v>1692.0</v>
+        <v>1672.0</v>
       </c>
       <c r="E144" t="s">
-        <v>8</v>
+        <v>149</v>
       </c>
     </row>
     <row r="145">
@@ -3029,10 +3992,10 @@
         <v>6</v>
       </c>
       <c r="D145" t="n">
-        <v>1693.0</v>
+        <v>1673.0</v>
       </c>
       <c r="E145" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146">
@@ -3046,10 +4009,10 @@
         <v>6</v>
       </c>
       <c r="D146" t="n">
-        <v>1694.0</v>
+        <v>1674.0</v>
       </c>
       <c r="E146" t="s">
-        <v>8</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147">
@@ -3063,10 +4026,10 @@
         <v>6</v>
       </c>
       <c r="D147" t="n">
-        <v>1695.0</v>
+        <v>1675.0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148">
@@ -3080,10 +4043,10 @@
         <v>6</v>
       </c>
       <c r="D148" t="n">
-        <v>1696.0</v>
+        <v>1676.0</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
@@ -3097,10 +4060,10 @@
         <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>1697.0</v>
+        <v>1677.0</v>
       </c>
       <c r="E149" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150">
@@ -3114,10 +4077,10 @@
         <v>6</v>
       </c>
       <c r="D150" t="n">
-        <v>1698.0</v>
+        <v>1678.0</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151">
@@ -3131,10 +4094,10 @@
         <v>6</v>
       </c>
       <c r="D151" t="n">
-        <v>1699.0</v>
+        <v>1679.0</v>
       </c>
       <c r="E151" t="s">
-        <v>8</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152">
@@ -3148,10 +4111,10 @@
         <v>6</v>
       </c>
       <c r="D152" t="n">
-        <v>1700.0</v>
+        <v>1680.0</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
     </row>
     <row r="153">
@@ -3165,10 +4128,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="n">
-        <v>1701.0</v>
+        <v>1681.0</v>
       </c>
       <c r="E153" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
     </row>
     <row r="154">
@@ -3182,10 +4145,10 @@
         <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>1702.0</v>
+        <v>1682.0</v>
       </c>
       <c r="E154" t="s">
-        <v>8</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155">
@@ -3199,10 +4162,10 @@
         <v>6</v>
       </c>
       <c r="D155" t="n">
-        <v>1703.0</v>
+        <v>1683.0</v>
       </c>
       <c r="E155" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156">
@@ -3216,10 +4179,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="n">
-        <v>1704.0</v>
+        <v>1684.0</v>
       </c>
       <c r="E156" t="s">
-        <v>8</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157">
@@ -3233,10 +4196,10 @@
         <v>6</v>
       </c>
       <c r="D157" t="n">
-        <v>1705.0</v>
+        <v>1685.0</v>
       </c>
       <c r="E157" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158">
@@ -3250,10 +4213,10 @@
         <v>6</v>
       </c>
       <c r="D158" t="n">
-        <v>1706.0</v>
+        <v>1686.0</v>
       </c>
       <c r="E158" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159">
@@ -3267,10 +4230,10 @@
         <v>6</v>
       </c>
       <c r="D159" t="n">
-        <v>1707.0</v>
+        <v>1687.0</v>
       </c>
       <c r="E159" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160">
@@ -3284,10 +4247,10 @@
         <v>6</v>
       </c>
       <c r="D160" t="n">
-        <v>1708.0</v>
+        <v>1688.0</v>
       </c>
       <c r="E160" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161">
@@ -3301,10 +4264,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="n">
-        <v>1709.0</v>
+        <v>1689.0</v>
       </c>
       <c r="E161" t="s">
-        <v>8</v>
+        <v>166</v>
       </c>
     </row>
     <row r="162">
@@ -3318,10 +4281,10 @@
         <v>6</v>
       </c>
       <c r="D162" t="n">
-        <v>1710.0</v>
+        <v>1690.0</v>
       </c>
       <c r="E162" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
     </row>
     <row r="163">
@@ -3335,10 +4298,10 @@
         <v>6</v>
       </c>
       <c r="D163" t="n">
-        <v>1711.0</v>
+        <v>1691.0</v>
       </c>
       <c r="E163" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
     </row>
     <row r="164">
@@ -3352,10 +4315,10 @@
         <v>6</v>
       </c>
       <c r="D164" t="n">
-        <v>1712.0</v>
+        <v>1692.0</v>
       </c>
       <c r="E164" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
     </row>
     <row r="165">
@@ -3369,10 +4332,10 @@
         <v>6</v>
       </c>
       <c r="D165" t="n">
-        <v>1713.0</v>
+        <v>1693.0</v>
       </c>
       <c r="E165" t="s">
-        <v>8</v>
+        <v>170</v>
       </c>
     </row>
     <row r="166">
@@ -3386,10 +4349,10 @@
         <v>6</v>
       </c>
       <c r="D166" t="n">
-        <v>1714.0</v>
+        <v>1694.0</v>
       </c>
       <c r="E166" t="s">
-        <v>8</v>
+        <v>171</v>
       </c>
     </row>
     <row r="167">
@@ -3403,10 +4366,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="n">
-        <v>1715.0</v>
+        <v>1695.0</v>
       </c>
       <c r="E167" t="s">
-        <v>8</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168">
@@ -3420,10 +4383,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="n">
-        <v>1716.0</v>
+        <v>1696.0</v>
       </c>
       <c r="E168" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
     </row>
     <row r="169">
@@ -3437,10 +4400,10 @@
         <v>6</v>
       </c>
       <c r="D169" t="n">
-        <v>1717.0</v>
+        <v>1697.0</v>
       </c>
       <c r="E169" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
     </row>
     <row r="170">
@@ -3454,10 +4417,10 @@
         <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>1718.0</v>
+        <v>1698.0</v>
       </c>
       <c r="E170" t="s">
-        <v>8</v>
+        <v>175</v>
       </c>
     </row>
     <row r="171">
@@ -3471,10 +4434,10 @@
         <v>6</v>
       </c>
       <c r="D171" t="n">
-        <v>1719.0</v>
+        <v>1699.0</v>
       </c>
       <c r="E171" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
     </row>
     <row r="172">
@@ -3488,10 +4451,10 @@
         <v>6</v>
       </c>
       <c r="D172" t="n">
-        <v>1720.0</v>
+        <v>1700.0</v>
       </c>
       <c r="E172" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
     </row>
     <row r="173">
@@ -3505,10 +4468,10 @@
         <v>6</v>
       </c>
       <c r="D173" t="n">
-        <v>1721.0</v>
+        <v>1701.0</v>
       </c>
       <c r="E173" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="174">
@@ -3522,10 +4485,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="n">
-        <v>1722.0</v>
+        <v>1702.0</v>
       </c>
       <c r="E174" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
     </row>
     <row r="175">
@@ -3539,10 +4502,10 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>1723.0</v>
+        <v>1703.0</v>
       </c>
       <c r="E175" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
     </row>
     <row r="176">
@@ -3556,10 +4519,10 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>1724.0</v>
+        <v>1704.0</v>
       </c>
       <c r="E176" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
     </row>
     <row r="177">
@@ -3573,10 +4536,10 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>1725.0</v>
+        <v>1705.0</v>
       </c>
       <c r="E177" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
     </row>
     <row r="178">
@@ -3590,10 +4553,10 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>1726.0</v>
+        <v>1706.0</v>
       </c>
       <c r="E178" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="179">
@@ -3607,10 +4570,10 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>1727.0</v>
+        <v>1707.0</v>
       </c>
       <c r="E179" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180">
@@ -3624,10 +4587,10 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>1728.0</v>
+        <v>1708.0</v>
       </c>
       <c r="E180" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
     </row>
     <row r="181">
@@ -3641,10 +4604,10 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>1729.0</v>
+        <v>1709.0</v>
       </c>
       <c r="E181" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182">
@@ -3658,10 +4621,10 @@
         <v>6</v>
       </c>
       <c r="D182" t="n">
-        <v>1730.0</v>
+        <v>1710.0</v>
       </c>
       <c r="E182" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
     </row>
     <row r="183">
@@ -3675,10 +4638,10 @@
         <v>6</v>
       </c>
       <c r="D183" t="n">
-        <v>1731.0</v>
+        <v>1711.0</v>
       </c>
       <c r="E183" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="184">
@@ -3692,10 +4655,10 @@
         <v>6</v>
       </c>
       <c r="D184" t="n">
-        <v>1732.0</v>
+        <v>1712.0</v>
       </c>
       <c r="E184" t="s">
-        <v>8</v>
+        <v>189</v>
       </c>
     </row>
     <row r="185">
@@ -3709,10 +4672,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="n">
-        <v>1733.0</v>
+        <v>1713.0</v>
       </c>
       <c r="E185" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
     </row>
     <row r="186">
@@ -3726,10 +4689,10 @@
         <v>6</v>
       </c>
       <c r="D186" t="n">
-        <v>1734.0</v>
+        <v>1714.0</v>
       </c>
       <c r="E186" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187">
@@ -3743,10 +4706,10 @@
         <v>6</v>
       </c>
       <c r="D187" t="n">
-        <v>1735.0</v>
+        <v>1715.0</v>
       </c>
       <c r="E187" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188">
@@ -3760,10 +4723,10 @@
         <v>6</v>
       </c>
       <c r="D188" t="n">
-        <v>1736.0</v>
+        <v>1716.0</v>
       </c>
       <c r="E188" t="s">
-        <v>8</v>
+        <v>193</v>
       </c>
     </row>
     <row r="189">
@@ -3777,10 +4740,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="n">
-        <v>1737.0</v>
+        <v>1717.0</v>
       </c>
       <c r="E189" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
     </row>
     <row r="190">
@@ -3794,10 +4757,10 @@
         <v>6</v>
       </c>
       <c r="D190" t="n">
-        <v>1738.0</v>
+        <v>1718.0</v>
       </c>
       <c r="E190" t="s">
-        <v>8</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191">
@@ -3811,10 +4774,10 @@
         <v>6</v>
       </c>
       <c r="D191" t="n">
-        <v>1739.0</v>
+        <v>1719.0</v>
       </c>
       <c r="E191" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192">
@@ -3828,10 +4791,10 @@
         <v>6</v>
       </c>
       <c r="D192" t="n">
-        <v>1740.0</v>
+        <v>1720.0</v>
       </c>
       <c r="E192" t="s">
-        <v>8</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193">
@@ -3845,10 +4808,10 @@
         <v>6</v>
       </c>
       <c r="D193" t="n">
-        <v>1741.0</v>
+        <v>1721.0</v>
       </c>
       <c r="E193" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194">
@@ -3862,10 +4825,10 @@
         <v>6</v>
       </c>
       <c r="D194" t="n">
-        <v>1742.0</v>
+        <v>1722.0</v>
       </c>
       <c r="E194" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195">
@@ -3879,10 +4842,10 @@
         <v>6</v>
       </c>
       <c r="D195" t="n">
-        <v>1743.0</v>
+        <v>1723.0</v>
       </c>
       <c r="E195" t="s">
-        <v>8</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196">
@@ -3896,10 +4859,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="n">
-        <v>1744.0</v>
+        <v>1724.0</v>
       </c>
       <c r="E196" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197">
@@ -3913,10 +4876,10 @@
         <v>6</v>
       </c>
       <c r="D197" t="n">
-        <v>1745.0</v>
+        <v>1725.0</v>
       </c>
       <c r="E197" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198">
@@ -3930,10 +4893,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="n">
-        <v>1746.0</v>
+        <v>1726.0</v>
       </c>
       <c r="E198" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
     </row>
     <row r="199">
@@ -3947,10 +4910,10 @@
         <v>6</v>
       </c>
       <c r="D199" t="n">
-        <v>1747.0</v>
+        <v>1727.0</v>
       </c>
       <c r="E199" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200">
@@ -3964,10 +4927,10 @@
         <v>6</v>
       </c>
       <c r="D200" t="n">
-        <v>1748.0</v>
+        <v>1728.0</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201">
@@ -3981,10 +4944,10 @@
         <v>6</v>
       </c>
       <c r="D201" t="n">
-        <v>1749.0</v>
+        <v>1729.0</v>
       </c>
       <c r="E201" t="s">
-        <v>8</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202">
@@ -3998,10 +4961,10 @@
         <v>6</v>
       </c>
       <c r="D202" t="n">
-        <v>1750.0</v>
+        <v>1730.0</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203">
@@ -4015,10 +4978,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="n">
-        <v>1751.0</v>
+        <v>1731.0</v>
       </c>
       <c r="E203" t="s">
-        <v>8</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204">
@@ -4032,10 +4995,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="n">
-        <v>1752.0</v>
+        <v>1732.0</v>
       </c>
       <c r="E204" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
     </row>
     <row r="205">
@@ -4049,10 +5012,10 @@
         <v>6</v>
       </c>
       <c r="D205" t="n">
-        <v>1753.0</v>
+        <v>1733.0</v>
       </c>
       <c r="E205" t="s">
-        <v>8</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206">
@@ -4066,10 +5029,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="n">
-        <v>1754.0</v>
+        <v>1734.0</v>
       </c>
       <c r="E206" t="s">
-        <v>8</v>
+        <v>211</v>
       </c>
     </row>
     <row r="207">
@@ -4083,10 +5046,10 @@
         <v>6</v>
       </c>
       <c r="D207" t="n">
-        <v>1755.0</v>
+        <v>1735.0</v>
       </c>
       <c r="E207" t="s">
-        <v>8</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208">
@@ -4100,10 +5063,10 @@
         <v>6</v>
       </c>
       <c r="D208" t="n">
-        <v>1756.0</v>
+        <v>1736.0</v>
       </c>
       <c r="E208" t="s">
-        <v>8</v>
+        <v>213</v>
       </c>
     </row>
     <row r="209">
@@ -4117,10 +5080,10 @@
         <v>6</v>
       </c>
       <c r="D209" t="n">
-        <v>1757.0</v>
+        <v>1737.0</v>
       </c>
       <c r="E209" t="s">
-        <v>8</v>
+        <v>214</v>
       </c>
     </row>
     <row r="210">
@@ -4134,10 +5097,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="n">
-        <v>1758.0</v>
+        <v>1738.0</v>
       </c>
       <c r="E210" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211">
@@ -4151,10 +5114,10 @@
         <v>6</v>
       </c>
       <c r="D211" t="n">
-        <v>1759.0</v>
+        <v>1739.0</v>
       </c>
       <c r="E211" t="s">
-        <v>8</v>
+        <v>216</v>
       </c>
     </row>
     <row r="212">
@@ -4168,10 +5131,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>1760.0</v>
+        <v>1740.0</v>
       </c>
       <c r="E212" t="s">
-        <v>8</v>
+        <v>217</v>
       </c>
     </row>
     <row r="213">
@@ -4185,10 +5148,10 @@
         <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>1761.0</v>
+        <v>1741.0</v>
       </c>
       <c r="E213" t="s">
-        <v>8</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214">
@@ -4202,10 +5165,10 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>1762.0</v>
+        <v>1742.0</v>
       </c>
       <c r="E214" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
     </row>
     <row r="215">
@@ -4219,10 +5182,10 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>1763.0</v>
+        <v>1743.0</v>
       </c>
       <c r="E215" t="s">
-        <v>8</v>
+        <v>220</v>
       </c>
     </row>
     <row r="216">
@@ -4236,10 +5199,10 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>1764.0</v>
+        <v>1744.0</v>
       </c>
       <c r="E216" t="s">
-        <v>8</v>
+        <v>221</v>
       </c>
     </row>
     <row r="217">
@@ -4253,10 +5216,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>1765.0</v>
+        <v>1745.0</v>
       </c>
       <c r="E217" t="s">
-        <v>8</v>
+        <v>222</v>
       </c>
     </row>
     <row r="218">
@@ -4270,10 +5233,10 @@
         <v>6</v>
       </c>
       <c r="D218" t="n">
-        <v>1766.0</v>
+        <v>1746.0</v>
       </c>
       <c r="E218" t="s">
-        <v>8</v>
+        <v>223</v>
       </c>
     </row>
     <row r="219">
@@ -4287,10 +5250,10 @@
         <v>6</v>
       </c>
       <c r="D219" t="n">
-        <v>1767.0</v>
+        <v>1747.0</v>
       </c>
       <c r="E219" t="s">
-        <v>8</v>
+        <v>224</v>
       </c>
     </row>
     <row r="220">
@@ -4304,10 +5267,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="n">
-        <v>1768.0</v>
+        <v>1748.0</v>
       </c>
       <c r="E220" t="s">
-        <v>8</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221">
@@ -4321,10 +5284,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="n">
-        <v>1769.0</v>
+        <v>1749.0</v>
       </c>
       <c r="E221" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="222">
@@ -4338,10 +5301,10 @@
         <v>6</v>
       </c>
       <c r="D222" t="n">
-        <v>1770.0</v>
+        <v>1750.0</v>
       </c>
       <c r="E222" t="s">
-        <v>8</v>
+        <v>227</v>
       </c>
     </row>
     <row r="223">
@@ -4355,10 +5318,10 @@
         <v>6</v>
       </c>
       <c r="D223" t="n">
-        <v>1771.0</v>
+        <v>1751.0</v>
       </c>
       <c r="E223" t="s">
-        <v>8</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224">
@@ -4372,10 +5335,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>1772.0</v>
+        <v>1752.0</v>
       </c>
       <c r="E224" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
     </row>
     <row r="225">
@@ -4389,10 +5352,10 @@
         <v>6</v>
       </c>
       <c r="D225" t="n">
-        <v>1773.0</v>
+        <v>1753.0</v>
       </c>
       <c r="E225" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
     </row>
     <row r="226">
@@ -4406,10 +5369,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="n">
-        <v>1774.0</v>
+        <v>1754.0</v>
       </c>
       <c r="E226" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
     </row>
     <row r="227">
@@ -4423,10 +5386,10 @@
         <v>6</v>
       </c>
       <c r="D227" t="n">
-        <v>1775.0</v>
+        <v>1755.0</v>
       </c>
       <c r="E227" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
     </row>
     <row r="228">
@@ -4440,10 +5403,10 @@
         <v>6</v>
       </c>
       <c r="D228" t="n">
-        <v>1776.0</v>
+        <v>1756.0</v>
       </c>
       <c r="E228" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
     </row>
     <row r="229">
@@ -4457,10 +5420,10 @@
         <v>6</v>
       </c>
       <c r="D229" t="n">
-        <v>1777.0</v>
+        <v>1757.0</v>
       </c>
       <c r="E229" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
     </row>
     <row r="230">
@@ -4474,10 +5437,10 @@
         <v>6</v>
       </c>
       <c r="D230" t="n">
-        <v>1778.0</v>
+        <v>1758.0</v>
       </c>
       <c r="E230" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
     </row>
     <row r="231">
@@ -4491,10 +5454,10 @@
         <v>6</v>
       </c>
       <c r="D231" t="n">
-        <v>1779.0</v>
+        <v>1759.0</v>
       </c>
       <c r="E231" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
     </row>
     <row r="232">
@@ -4508,10 +5471,10 @@
         <v>6</v>
       </c>
       <c r="D232" t="n">
-        <v>1780.0</v>
+        <v>1760.0</v>
       </c>
       <c r="E232" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
     </row>
     <row r="233">
@@ -4525,10 +5488,10 @@
         <v>6</v>
       </c>
       <c r="D233" t="n">
-        <v>1781.0</v>
+        <v>1761.0</v>
       </c>
       <c r="E233" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
     </row>
     <row r="234">
@@ -4542,10 +5505,10 @@
         <v>6</v>
       </c>
       <c r="D234" t="n">
-        <v>1782.0</v>
+        <v>1762.0</v>
       </c>
       <c r="E234" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
     </row>
     <row r="235">
@@ -4559,10 +5522,10 @@
         <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>1783.0</v>
+        <v>1763.0</v>
       </c>
       <c r="E235" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
     </row>
     <row r="236">
@@ -4576,10 +5539,10 @@
         <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>1784.0</v>
+        <v>1764.0</v>
       </c>
       <c r="E236" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="237">
@@ -4593,10 +5556,10 @@
         <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>1785.0</v>
+        <v>1765.0</v>
       </c>
       <c r="E237" t="s">
-        <v>8</v>
+        <v>242</v>
       </c>
     </row>
     <row r="238">
@@ -4610,10 +5573,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="n">
-        <v>1786.0</v>
+        <v>1766.0</v>
       </c>
       <c r="E238" t="s">
-        <v>8</v>
+        <v>243</v>
       </c>
     </row>
     <row r="239">
@@ -4627,10 +5590,10 @@
         <v>6</v>
       </c>
       <c r="D239" t="n">
-        <v>1787.0</v>
+        <v>1767.0</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>244</v>
       </c>
     </row>
     <row r="240">
@@ -4644,10 +5607,10 @@
         <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>1788.0</v>
+        <v>1768.0</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>245</v>
       </c>
     </row>
     <row r="241">
@@ -4661,10 +5624,10 @@
         <v>6</v>
       </c>
       <c r="D241" t="n">
-        <v>1789.0</v>
+        <v>1769.0</v>
       </c>
       <c r="E241" t="s">
-        <v>8</v>
+        <v>246</v>
       </c>
     </row>
     <row r="242">
@@ -4678,10 +5641,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="n">
-        <v>1790.0</v>
+        <v>1770.0</v>
       </c>
       <c r="E242" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
     </row>
     <row r="243">
@@ -4695,10 +5658,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="n">
-        <v>1791.0</v>
+        <v>1771.0</v>
       </c>
       <c r="E243" t="s">
-        <v>8</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244">
@@ -4712,10 +5675,10 @@
         <v>6</v>
       </c>
       <c r="D244" t="n">
-        <v>1792.0</v>
+        <v>1772.0</v>
       </c>
       <c r="E244" t="s">
-        <v>8</v>
+        <v>249</v>
       </c>
     </row>
     <row r="245">
@@ -4729,10 +5692,10 @@
         <v>6</v>
       </c>
       <c r="D245" t="n">
-        <v>1793.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E245" t="s">
-        <v>8</v>
+        <v>250</v>
       </c>
     </row>
     <row r="246">
@@ -4746,10 +5709,10 @@
         <v>6</v>
       </c>
       <c r="D246" t="n">
-        <v>1794.0</v>
+        <v>1774.0</v>
       </c>
       <c r="E246" t="s">
-        <v>8</v>
+        <v>251</v>
       </c>
     </row>
     <row r="247">
@@ -4763,10 +5726,10 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>1795.0</v>
+        <v>1775.0</v>
       </c>
       <c r="E247" t="s">
-        <v>8</v>
+        <v>252</v>
       </c>
     </row>
     <row r="248">
@@ -4780,10 +5743,10 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>1796.0</v>
+        <v>1776.0</v>
       </c>
       <c r="E248" t="s">
-        <v>8</v>
+        <v>253</v>
       </c>
     </row>
     <row r="249">
@@ -4797,10 +5760,10 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>1797.0</v>
+        <v>1777.0</v>
       </c>
       <c r="E249" t="s">
-        <v>8</v>
+        <v>254</v>
       </c>
     </row>
     <row r="250">
@@ -4814,10 +5777,10 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>1798.0</v>
+        <v>1778.0</v>
       </c>
       <c r="E250" t="s">
-        <v>8</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251">
@@ -4831,10 +5794,10 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>1799.0</v>
+        <v>1779.0</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>256</v>
       </c>
     </row>
     <row r="252">
@@ -4848,10 +5811,10 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>1800.0</v>
+        <v>1780.0</v>
       </c>
       <c r="E252" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
     </row>
     <row r="253">
@@ -4865,10 +5828,10 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>1801.0</v>
+        <v>1781.0</v>
       </c>
       <c r="E253" t="s">
-        <v>8</v>
+        <v>258</v>
       </c>
     </row>
     <row r="254">
@@ -4882,10 +5845,10 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>1802.0</v>
+        <v>1782.0</v>
       </c>
       <c r="E254" t="s">
-        <v>8</v>
+        <v>259</v>
       </c>
     </row>
     <row r="255">
@@ -4899,10 +5862,10 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>1803.0</v>
+        <v>1783.0</v>
       </c>
       <c r="E255" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
     </row>
     <row r="256">
@@ -4916,10 +5879,10 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>1804.0</v>
+        <v>1784.0</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>261</v>
       </c>
     </row>
     <row r="257">
@@ -4933,10 +5896,10 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>1805.0</v>
+        <v>1785.0</v>
       </c>
       <c r="E257" t="s">
-        <v>8</v>
+        <v>262</v>
       </c>
     </row>
     <row r="258">
@@ -4950,10 +5913,10 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>1806.0</v>
+        <v>1786.0</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>263</v>
       </c>
     </row>
     <row r="259">
@@ -4967,10 +5930,10 @@
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>1807.0</v>
+        <v>1787.0</v>
       </c>
       <c r="E259" t="s">
-        <v>8</v>
+        <v>264</v>
       </c>
     </row>
     <row r="260">
@@ -4984,10 +5947,10 @@
         <v>6</v>
       </c>
       <c r="D260" t="n">
-        <v>1808.0</v>
+        <v>1788.0</v>
       </c>
       <c r="E260" t="s">
-        <v>8</v>
+        <v>265</v>
       </c>
     </row>
     <row r="261">
@@ -5001,10 +5964,10 @@
         <v>6</v>
       </c>
       <c r="D261" t="n">
-        <v>1809.0</v>
+        <v>1789.0</v>
       </c>
       <c r="E261" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
     </row>
     <row r="262">
@@ -5018,10 +5981,10 @@
         <v>6</v>
       </c>
       <c r="D262" t="n">
-        <v>1810.0</v>
+        <v>1790.0</v>
       </c>
       <c r="E262" t="s">
-        <v>8</v>
+        <v>267</v>
       </c>
     </row>
     <row r="263">
@@ -5035,10 +5998,10 @@
         <v>6</v>
       </c>
       <c r="D263" t="n">
-        <v>1811.0</v>
+        <v>1791.0</v>
       </c>
       <c r="E263" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
     </row>
     <row r="264">
@@ -5052,10 +6015,10 @@
         <v>6</v>
       </c>
       <c r="D264" t="n">
-        <v>1812.0</v>
+        <v>1792.0</v>
       </c>
       <c r="E264" t="s">
-        <v>8</v>
+        <v>269</v>
       </c>
     </row>
     <row r="265">
@@ -5069,10 +6032,10 @@
         <v>6</v>
       </c>
       <c r="D265" t="n">
-        <v>1813.0</v>
+        <v>1793.0</v>
       </c>
       <c r="E265" t="s">
-        <v>8</v>
+        <v>270</v>
       </c>
     </row>
     <row r="266">
@@ -5086,10 +6049,10 @@
         <v>6</v>
       </c>
       <c r="D266" t="n">
-        <v>1814.0</v>
+        <v>1794.0</v>
       </c>
       <c r="E266" t="s">
-        <v>8</v>
+        <v>271</v>
       </c>
     </row>
     <row r="267">
@@ -5103,10 +6066,10 @@
         <v>6</v>
       </c>
       <c r="D267" t="n">
-        <v>1815.0</v>
+        <v>1795.0</v>
       </c>
       <c r="E267" t="s">
-        <v>8</v>
+        <v>272</v>
       </c>
     </row>
     <row r="268">
@@ -5120,10 +6083,10 @@
         <v>6</v>
       </c>
       <c r="D268" t="n">
-        <v>1816.0</v>
+        <v>1796.0</v>
       </c>
       <c r="E268" t="s">
-        <v>8</v>
+        <v>273</v>
       </c>
     </row>
     <row r="269">
@@ -5137,10 +6100,10 @@
         <v>6</v>
       </c>
       <c r="D269" t="n">
-        <v>1817.0</v>
+        <v>1797.0</v>
       </c>
       <c r="E269" t="s">
-        <v>8</v>
+        <v>274</v>
       </c>
     </row>
     <row r="270">
@@ -5154,10 +6117,10 @@
         <v>6</v>
       </c>
       <c r="D270" t="n">
-        <v>1818.0</v>
+        <v>1798.0</v>
       </c>
       <c r="E270" t="s">
-        <v>8</v>
+        <v>275</v>
       </c>
     </row>
     <row r="271">
@@ -5171,10 +6134,10 @@
         <v>6</v>
       </c>
       <c r="D271" t="n">
-        <v>1819.0</v>
+        <v>1799.0</v>
       </c>
       <c r="E271" t="s">
-        <v>8</v>
+        <v>276</v>
       </c>
     </row>
     <row r="272">
@@ -5188,10 +6151,10 @@
         <v>6</v>
       </c>
       <c r="D272" t="n">
-        <v>1820.0</v>
+        <v>1800.0</v>
       </c>
       <c r="E272" t="s">
-        <v>13</v>
+        <v>277</v>
       </c>
     </row>
     <row r="273">
@@ -5205,10 +6168,10 @@
         <v>6</v>
       </c>
       <c r="D273" t="n">
-        <v>1821.0</v>
+        <v>1801.0</v>
       </c>
       <c r="E273" t="s">
-        <v>8</v>
+        <v>278</v>
       </c>
     </row>
     <row r="274">
@@ -5222,10 +6185,10 @@
         <v>6</v>
       </c>
       <c r="D274" t="n">
-        <v>1822.0</v>
+        <v>1802.0</v>
       </c>
       <c r="E274" t="s">
-        <v>8</v>
+        <v>279</v>
       </c>
     </row>
     <row r="275">
@@ -5239,10 +6202,10 @@
         <v>6</v>
       </c>
       <c r="D275" t="n">
-        <v>1823.0</v>
+        <v>1803.0</v>
       </c>
       <c r="E275" t="s">
-        <v>8</v>
+        <v>280</v>
       </c>
     </row>
     <row r="276">
@@ -5256,10 +6219,10 @@
         <v>6</v>
       </c>
       <c r="D276" t="n">
-        <v>1824.0</v>
+        <v>1804.0</v>
       </c>
       <c r="E276" t="s">
-        <v>8</v>
+        <v>281</v>
       </c>
     </row>
     <row r="277">
@@ -5273,10 +6236,10 @@
         <v>6</v>
       </c>
       <c r="D277" t="n">
-        <v>1825.0</v>
+        <v>1805.0</v>
       </c>
       <c r="E277" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
     </row>
     <row r="278">
@@ -5290,10 +6253,10 @@
         <v>6</v>
       </c>
       <c r="D278" t="n">
-        <v>1826.0</v>
+        <v>1806.0</v>
       </c>
       <c r="E278" t="s">
-        <v>8</v>
+        <v>283</v>
       </c>
     </row>
     <row r="279">
@@ -5307,10 +6270,10 @@
         <v>6</v>
       </c>
       <c r="D279" t="n">
-        <v>1827.0</v>
+        <v>1807.0</v>
       </c>
       <c r="E279" t="s">
-        <v>8</v>
+        <v>284</v>
       </c>
     </row>
     <row r="280">
@@ -5324,10 +6287,10 @@
         <v>6</v>
       </c>
       <c r="D280" t="n">
-        <v>1828.0</v>
+        <v>1808.0</v>
       </c>
       <c r="E280" t="s">
-        <v>8</v>
+        <v>285</v>
       </c>
     </row>
     <row r="281">
@@ -5341,10 +6304,10 @@
         <v>6</v>
       </c>
       <c r="D281" t="n">
-        <v>1829.0</v>
+        <v>1809.0</v>
       </c>
       <c r="E281" t="s">
-        <v>8</v>
+        <v>286</v>
       </c>
     </row>
     <row r="282">
@@ -5358,10 +6321,10 @@
         <v>6</v>
       </c>
       <c r="D282" t="n">
-        <v>1830.0</v>
+        <v>1810.0</v>
       </c>
       <c r="E282" t="s">
-        <v>8</v>
+        <v>287</v>
       </c>
     </row>
     <row r="283">
@@ -5375,10 +6338,10 @@
         <v>6</v>
       </c>
       <c r="D283" t="n">
-        <v>1831.0</v>
+        <v>1811.0</v>
       </c>
       <c r="E283" t="s">
-        <v>8</v>
+        <v>288</v>
       </c>
     </row>
     <row r="284">
@@ -5392,10 +6355,10 @@
         <v>6</v>
       </c>
       <c r="D284" t="n">
-        <v>1832.0</v>
+        <v>1812.0</v>
       </c>
       <c r="E284" t="s">
-        <v>8</v>
+        <v>289</v>
       </c>
     </row>
     <row r="285">
@@ -5409,10 +6372,10 @@
         <v>6</v>
       </c>
       <c r="D285" t="n">
-        <v>1833.0</v>
+        <v>1813.0</v>
       </c>
       <c r="E285" t="s">
-        <v>8</v>
+        <v>290</v>
       </c>
     </row>
     <row r="286">
@@ -5426,10 +6389,10 @@
         <v>6</v>
       </c>
       <c r="D286" t="n">
-        <v>1834.0</v>
+        <v>1814.0</v>
       </c>
       <c r="E286" t="s">
-        <v>8</v>
+        <v>291</v>
       </c>
     </row>
     <row r="287">
@@ -5443,10 +6406,10 @@
         <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1835.0</v>
+        <v>1815.0</v>
       </c>
       <c r="E287" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
     </row>
     <row r="288">
@@ -5460,10 +6423,10 @@
         <v>6</v>
       </c>
       <c r="D288" t="n">
-        <v>1836.0</v>
+        <v>1816.0</v>
       </c>
       <c r="E288" t="s">
-        <v>8</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289">
@@ -5477,10 +6440,10 @@
         <v>6</v>
       </c>
       <c r="D289" t="n">
-        <v>1837.0</v>
+        <v>1817.0</v>
       </c>
       <c r="E289" t="s">
-        <v>8</v>
+        <v>294</v>
       </c>
     </row>
     <row r="290">
@@ -5494,10 +6457,10 @@
         <v>6</v>
       </c>
       <c r="D290" t="n">
-        <v>1838.0</v>
+        <v>1818.0</v>
       </c>
       <c r="E290" t="s">
-        <v>8</v>
+        <v>295</v>
       </c>
     </row>
     <row r="291">
@@ -5511,10 +6474,10 @@
         <v>6</v>
       </c>
       <c r="D291" t="n">
-        <v>1839.0</v>
+        <v>1819.0</v>
       </c>
       <c r="E291" t="s">
-        <v>8</v>
+        <v>296</v>
       </c>
     </row>
     <row r="292">
@@ -5528,10 +6491,10 @@
         <v>6</v>
       </c>
       <c r="D292" t="n">
-        <v>1840.0</v>
+        <v>1820.0</v>
       </c>
       <c r="E292" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
     </row>
     <row r="293">
@@ -5545,10 +6508,10 @@
         <v>6</v>
       </c>
       <c r="D293" t="n">
-        <v>1841.0</v>
+        <v>1821.0</v>
       </c>
       <c r="E293" t="s">
-        <v>8</v>
+        <v>298</v>
       </c>
     </row>
     <row r="294">
@@ -5562,10 +6525,10 @@
         <v>6</v>
       </c>
       <c r="D294" t="n">
-        <v>1842.0</v>
+        <v>1822.0</v>
       </c>
       <c r="E294" t="s">
-        <v>8</v>
+        <v>299</v>
       </c>
     </row>
     <row r="295">
@@ -5579,10 +6542,10 @@
         <v>6</v>
       </c>
       <c r="D295" t="n">
-        <v>1843.0</v>
+        <v>1823.0</v>
       </c>
       <c r="E295" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
     </row>
     <row r="296">
@@ -5596,10 +6559,10 @@
         <v>6</v>
       </c>
       <c r="D296" t="n">
-        <v>1844.0</v>
+        <v>1824.0</v>
       </c>
       <c r="E296" t="s">
-        <v>8</v>
+        <v>301</v>
       </c>
     </row>
     <row r="297">
@@ -5613,10 +6576,10 @@
         <v>6</v>
       </c>
       <c r="D297" t="n">
-        <v>1845.0</v>
+        <v>1825.0</v>
       </c>
       <c r="E297" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
     </row>
     <row r="298">
@@ -5630,10 +6593,10 @@
         <v>6</v>
       </c>
       <c r="D298" t="n">
-        <v>1846.0</v>
+        <v>1826.0</v>
       </c>
       <c r="E298" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
     </row>
     <row r="299">
@@ -5647,10 +6610,10 @@
         <v>6</v>
       </c>
       <c r="D299" t="n">
-        <v>1847.0</v>
+        <v>1827.0</v>
       </c>
       <c r="E299" t="s">
-        <v>8</v>
+        <v>304</v>
       </c>
     </row>
     <row r="300">
@@ -5664,10 +6627,10 @@
         <v>6</v>
       </c>
       <c r="D300" t="n">
-        <v>1848.0</v>
+        <v>1828.0</v>
       </c>
       <c r="E300" t="s">
-        <v>8</v>
+        <v>305</v>
       </c>
     </row>
     <row r="301">
@@ -5681,10 +6644,10 @@
         <v>6</v>
       </c>
       <c r="D301" t="n">
-        <v>1849.0</v>
+        <v>1829.0</v>
       </c>
       <c r="E301" t="s">
-        <v>8</v>
+        <v>306</v>
       </c>
     </row>
     <row r="302">
@@ -5698,10 +6661,10 @@
         <v>6</v>
       </c>
       <c r="D302" t="n">
-        <v>1850.0</v>
+        <v>1830.0</v>
       </c>
       <c r="E302" t="s">
-        <v>13</v>
+        <v>307</v>
       </c>
     </row>
     <row r="303">
@@ -5715,10 +6678,10 @@
         <v>6</v>
       </c>
       <c r="D303" t="n">
-        <v>1851.0</v>
+        <v>1831.0</v>
       </c>
       <c r="E303" t="s">
-        <v>14</v>
+        <v>308</v>
       </c>
     </row>
     <row r="304">
@@ -5732,10 +6695,10 @@
         <v>6</v>
       </c>
       <c r="D304" t="n">
-        <v>1852.0</v>
+        <v>1832.0</v>
       </c>
       <c r="E304" t="s">
-        <v>8</v>
+        <v>309</v>
       </c>
     </row>
     <row r="305">
@@ -5749,10 +6712,10 @@
         <v>6</v>
       </c>
       <c r="D305" t="n">
-        <v>1853.0</v>
+        <v>1833.0</v>
       </c>
       <c r="E305" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
     </row>
     <row r="306">
@@ -5766,10 +6729,10 @@
         <v>6</v>
       </c>
       <c r="D306" t="n">
-        <v>1854.0</v>
+        <v>1834.0</v>
       </c>
       <c r="E306" t="s">
-        <v>8</v>
+        <v>311</v>
       </c>
     </row>
     <row r="307">
@@ -5783,10 +6746,10 @@
         <v>6</v>
       </c>
       <c r="D307" t="n">
-        <v>1855.0</v>
+        <v>1835.0</v>
       </c>
       <c r="E307" t="s">
-        <v>15</v>
+        <v>312</v>
       </c>
     </row>
     <row r="308">
@@ -5800,10 +6763,10 @@
         <v>6</v>
       </c>
       <c r="D308" t="n">
-        <v>1856.0</v>
+        <v>1836.0</v>
       </c>
       <c r="E308" t="s">
-        <v>8</v>
+        <v>313</v>
       </c>
     </row>
     <row r="309">
@@ -5817,10 +6780,10 @@
         <v>6</v>
       </c>
       <c r="D309" t="n">
-        <v>1857.0</v>
+        <v>1837.0</v>
       </c>
       <c r="E309" t="s">
-        <v>8</v>
+        <v>314</v>
       </c>
     </row>
     <row r="310">
@@ -5834,10 +6797,10 @@
         <v>6</v>
       </c>
       <c r="D310" t="n">
-        <v>1858.0</v>
+        <v>1838.0</v>
       </c>
       <c r="E310" t="s">
-        <v>8</v>
+        <v>315</v>
       </c>
     </row>
     <row r="311">
@@ -5851,10 +6814,10 @@
         <v>6</v>
       </c>
       <c r="D311" t="n">
-        <v>1859.0</v>
+        <v>1839.0</v>
       </c>
       <c r="E311" t="s">
-        <v>8</v>
+        <v>316</v>
       </c>
     </row>
     <row r="312">
@@ -5868,10 +6831,10 @@
         <v>6</v>
       </c>
       <c r="D312" t="n">
-        <v>1860.0</v>
+        <v>1840.0</v>
       </c>
       <c r="E312" t="s">
-        <v>8</v>
+        <v>317</v>
       </c>
     </row>
     <row r="313">
@@ -5885,10 +6848,10 @@
         <v>6</v>
       </c>
       <c r="D313" t="n">
-        <v>1861.0</v>
+        <v>1841.0</v>
       </c>
       <c r="E313" t="s">
-        <v>16</v>
+        <v>318</v>
       </c>
     </row>
     <row r="314">
@@ -5902,10 +6865,10 @@
         <v>6</v>
       </c>
       <c r="D314" t="n">
-        <v>1862.0</v>
+        <v>1842.0</v>
       </c>
       <c r="E314" t="s">
-        <v>8</v>
+        <v>319</v>
       </c>
     </row>
     <row r="315">
@@ -5919,10 +6882,10 @@
         <v>6</v>
       </c>
       <c r="D315" t="n">
-        <v>1863.0</v>
+        <v>1843.0</v>
       </c>
       <c r="E315" t="s">
-        <v>8</v>
+        <v>320</v>
       </c>
     </row>
     <row r="316">
@@ -5936,10 +6899,10 @@
         <v>6</v>
       </c>
       <c r="D316" t="n">
-        <v>1864.0</v>
+        <v>1844.0</v>
       </c>
       <c r="E316" t="s">
-        <v>8</v>
+        <v>321</v>
       </c>
     </row>
     <row r="317">
@@ -5953,10 +6916,10 @@
         <v>6</v>
       </c>
       <c r="D317" t="n">
-        <v>1865.0</v>
+        <v>1845.0</v>
       </c>
       <c r="E317" t="s">
-        <v>17</v>
+        <v>322</v>
       </c>
     </row>
     <row r="318">
@@ -5970,10 +6933,10 @@
         <v>6</v>
       </c>
       <c r="D318" t="n">
-        <v>1866.0</v>
+        <v>1846.0</v>
       </c>
       <c r="E318" t="s">
-        <v>18</v>
+        <v>323</v>
       </c>
     </row>
     <row r="319">
@@ -5987,10 +6950,10 @@
         <v>6</v>
       </c>
       <c r="D319" t="n">
-        <v>1867.0</v>
+        <v>1847.0</v>
       </c>
       <c r="E319" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
     </row>
     <row r="320">
@@ -6004,10 +6967,10 @@
         <v>6</v>
       </c>
       <c r="D320" t="n">
-        <v>1868.0</v>
+        <v>1848.0</v>
       </c>
       <c r="E320" t="s">
-        <v>20</v>
+        <v>325</v>
       </c>
     </row>
     <row r="321">
@@ -6021,10 +6984,10 @@
         <v>6</v>
       </c>
       <c r="D321" t="n">
-        <v>1869.0</v>
+        <v>1849.0</v>
       </c>
       <c r="E321" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
     </row>
     <row r="322">
@@ -6038,10 +7001,10 @@
         <v>6</v>
       </c>
       <c r="D322" t="n">
-        <v>1870.0</v>
+        <v>1850.0</v>
       </c>
       <c r="E322" t="s">
-        <v>10</v>
+        <v>327</v>
       </c>
     </row>
     <row r="323">
@@ -6055,10 +7018,10 @@
         <v>6</v>
       </c>
       <c r="D323" t="n">
-        <v>1871.0</v>
+        <v>1851.0</v>
       </c>
       <c r="E323" t="s">
-        <v>22</v>
+        <v>328</v>
       </c>
     </row>
     <row r="324">
@@ -6072,10 +7035,10 @@
         <v>6</v>
       </c>
       <c r="D324" t="n">
-        <v>1872.0</v>
+        <v>1852.0</v>
       </c>
       <c r="E324" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
     </row>
     <row r="325">
@@ -6089,10 +7052,10 @@
         <v>6</v>
       </c>
       <c r="D325" t="n">
-        <v>1873.0</v>
+        <v>1853.0</v>
       </c>
       <c r="E325" t="s">
-        <v>24</v>
+        <v>328</v>
       </c>
     </row>
     <row r="326">
@@ -6106,10 +7069,10 @@
         <v>6</v>
       </c>
       <c r="D326" t="n">
-        <v>1874.0</v>
+        <v>1854.0</v>
       </c>
       <c r="E326" t="s">
-        <v>25</v>
+        <v>328</v>
       </c>
     </row>
     <row r="327">
@@ -6123,10 +7086,10 @@
         <v>6</v>
       </c>
       <c r="D327" t="n">
-        <v>1875.0</v>
+        <v>1855.0</v>
       </c>
       <c r="E327" t="s">
-        <v>26</v>
+        <v>329</v>
       </c>
     </row>
     <row r="328">
@@ -6140,10 +7103,10 @@
         <v>6</v>
       </c>
       <c r="D328" t="n">
-        <v>1876.0</v>
+        <v>1856.0</v>
       </c>
       <c r="E328" t="s">
-        <v>27</v>
+        <v>328</v>
       </c>
     </row>
     <row r="329">
@@ -6157,10 +7120,10 @@
         <v>6</v>
       </c>
       <c r="D329" t="n">
-        <v>1877.0</v>
+        <v>1857.0</v>
       </c>
       <c r="E329" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
     </row>
     <row r="330">
@@ -6174,10 +7137,10 @@
         <v>6</v>
       </c>
       <c r="D330" t="n">
-        <v>1878.0</v>
+        <v>1858.0</v>
       </c>
       <c r="E330" t="s">
-        <v>21</v>
+        <v>328</v>
       </c>
     </row>
     <row r="331">
@@ -6191,10 +7154,10 @@
         <v>6</v>
       </c>
       <c r="D331" t="n">
-        <v>1879.0</v>
+        <v>1859.0</v>
       </c>
       <c r="E331" t="s">
-        <v>26</v>
+        <v>328</v>
       </c>
     </row>
     <row r="332">
@@ -6208,10 +7171,10 @@
         <v>6</v>
       </c>
       <c r="D332" t="n">
-        <v>1880.0</v>
+        <v>1860.0</v>
       </c>
       <c r="E332" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
     </row>
     <row r="333">
@@ -6225,10 +7188,10 @@
         <v>6</v>
       </c>
       <c r="D333" t="n">
-        <v>1881.0</v>
+        <v>1861.0</v>
       </c>
       <c r="E333" t="s">
-        <v>30</v>
+        <v>330</v>
       </c>
     </row>
     <row r="334">
@@ -6242,10 +7205,10 @@
         <v>6</v>
       </c>
       <c r="D334" t="n">
-        <v>1882.0</v>
+        <v>1862.0</v>
       </c>
       <c r="E334" t="s">
-        <v>31</v>
+        <v>328</v>
       </c>
     </row>
     <row r="335">
@@ -6259,10 +7222,10 @@
         <v>6</v>
       </c>
       <c r="D335" t="n">
-        <v>1883.0</v>
+        <v>1863.0</v>
       </c>
       <c r="E335" t="s">
-        <v>32</v>
+        <v>328</v>
       </c>
     </row>
     <row r="336">
@@ -6276,10 +7239,10 @@
         <v>6</v>
       </c>
       <c r="D336" t="n">
-        <v>1884.0</v>
+        <v>1864.0</v>
       </c>
       <c r="E336" t="s">
-        <v>33</v>
+        <v>328</v>
       </c>
     </row>
     <row r="337">
@@ -6293,10 +7256,10 @@
         <v>6</v>
       </c>
       <c r="D337" t="n">
-        <v>1885.0</v>
+        <v>1865.0</v>
       </c>
       <c r="E337" t="s">
-        <v>34</v>
+        <v>331</v>
       </c>
     </row>
     <row r="338">
@@ -6310,10 +7273,10 @@
         <v>6</v>
       </c>
       <c r="D338" t="n">
-        <v>1886.0</v>
+        <v>1866.0</v>
       </c>
       <c r="E338" t="s">
-        <v>35</v>
+        <v>332</v>
       </c>
     </row>
     <row r="339">
@@ -6327,10 +7290,10 @@
         <v>6</v>
       </c>
       <c r="D339" t="n">
-        <v>1887.0</v>
+        <v>1867.0</v>
       </c>
       <c r="E339" t="s">
-        <v>36</v>
+        <v>333</v>
       </c>
     </row>
     <row r="340">
@@ -6344,10 +7307,10 @@
         <v>6</v>
       </c>
       <c r="D340" t="n">
-        <v>1888.0</v>
+        <v>1868.0</v>
       </c>
       <c r="E340" t="s">
-        <v>37</v>
+        <v>334</v>
       </c>
     </row>
     <row r="341">
@@ -6361,10 +7324,10 @@
         <v>6</v>
       </c>
       <c r="D341" t="n">
-        <v>1889.0</v>
+        <v>1869.0</v>
       </c>
       <c r="E341" t="s">
-        <v>38</v>
+        <v>335</v>
       </c>
     </row>
     <row r="342">
@@ -6378,10 +7341,10 @@
         <v>6</v>
       </c>
       <c r="D342" t="n">
-        <v>1890.0</v>
+        <v>1870.0</v>
       </c>
       <c r="E342" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
     </row>
     <row r="343">
@@ -6395,10 +7358,10 @@
         <v>6</v>
       </c>
       <c r="D343" t="n">
-        <v>1891.0</v>
+        <v>1871.0</v>
       </c>
       <c r="E343" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
     </row>
     <row r="344">
@@ -6412,10 +7375,10 @@
         <v>6</v>
       </c>
       <c r="D344" t="n">
-        <v>1892.0</v>
+        <v>1872.0</v>
       </c>
       <c r="E344" t="s">
-        <v>41</v>
+        <v>338</v>
       </c>
     </row>
     <row r="345">
@@ -6429,10 +7392,10 @@
         <v>6</v>
       </c>
       <c r="D345" t="n">
-        <v>1893.0</v>
+        <v>1873.0</v>
       </c>
       <c r="E345" t="s">
-        <v>42</v>
+        <v>339</v>
       </c>
     </row>
     <row r="346">
@@ -6446,10 +7409,10 @@
         <v>6</v>
       </c>
       <c r="D346" t="n">
-        <v>1894.0</v>
+        <v>1874.0</v>
       </c>
       <c r="E346" t="s">
-        <v>43</v>
+        <v>340</v>
       </c>
     </row>
     <row r="347">
@@ -6463,10 +7426,10 @@
         <v>6</v>
       </c>
       <c r="D347" t="n">
-        <v>1895.0</v>
+        <v>1875.0</v>
       </c>
       <c r="E347" t="s">
-        <v>44</v>
+        <v>341</v>
       </c>
     </row>
     <row r="348">
@@ -6480,10 +7443,10 @@
         <v>6</v>
       </c>
       <c r="D348" t="n">
-        <v>1896.0</v>
+        <v>1876.0</v>
       </c>
       <c r="E348" t="s">
-        <v>45</v>
+        <v>342</v>
       </c>
     </row>
     <row r="349">
@@ -6497,10 +7460,10 @@
         <v>6</v>
       </c>
       <c r="D349" t="n">
-        <v>1897.0</v>
+        <v>1877.0</v>
       </c>
       <c r="E349" t="s">
-        <v>46</v>
+        <v>343</v>
       </c>
     </row>
     <row r="350">
@@ -6514,10 +7477,10 @@
         <v>6</v>
       </c>
       <c r="D350" t="n">
-        <v>1898.0</v>
+        <v>1878.0</v>
       </c>
       <c r="E350" t="s">
-        <v>47</v>
+        <v>335</v>
       </c>
     </row>
     <row r="351">
@@ -6531,10 +7494,10 @@
         <v>6</v>
       </c>
       <c r="D351" t="n">
-        <v>1899.0</v>
+        <v>1879.0</v>
       </c>
       <c r="E351" t="s">
-        <v>48</v>
+        <v>341</v>
       </c>
     </row>
     <row r="352">
@@ -6548,10 +7511,10 @@
         <v>6</v>
       </c>
       <c r="D352" t="n">
-        <v>1900.0</v>
+        <v>1880.0</v>
       </c>
       <c r="E352" t="s">
-        <v>49</v>
+        <v>344</v>
       </c>
     </row>
     <row r="353">
@@ -6565,10 +7528,10 @@
         <v>6</v>
       </c>
       <c r="D353" t="n">
-        <v>1901.0</v>
+        <v>1881.0</v>
       </c>
       <c r="E353" t="s">
-        <v>50</v>
+        <v>345</v>
       </c>
     </row>
     <row r="354">
@@ -6582,10 +7545,10 @@
         <v>6</v>
       </c>
       <c r="D354" t="n">
-        <v>1902.0</v>
+        <v>1882.0</v>
       </c>
       <c r="E354" t="s">
-        <v>51</v>
+        <v>346</v>
       </c>
     </row>
     <row r="355">
@@ -6599,10 +7562,10 @@
         <v>6</v>
       </c>
       <c r="D355" t="n">
-        <v>1903.0</v>
+        <v>1883.0</v>
       </c>
       <c r="E355" t="s">
-        <v>52</v>
+        <v>347</v>
       </c>
     </row>
     <row r="356">
@@ -6616,10 +7579,10 @@
         <v>6</v>
       </c>
       <c r="D356" t="n">
-        <v>1904.0</v>
+        <v>1884.0</v>
       </c>
       <c r="E356" t="s">
-        <v>53</v>
+        <v>348</v>
       </c>
     </row>
     <row r="357">
@@ -6633,10 +7596,10 @@
         <v>6</v>
       </c>
       <c r="D357" t="n">
-        <v>1905.0</v>
+        <v>1885.0</v>
       </c>
       <c r="E357" t="s">
-        <v>54</v>
+        <v>349</v>
       </c>
     </row>
     <row r="358">
@@ -6650,10 +7613,10 @@
         <v>6</v>
       </c>
       <c r="D358" t="n">
-        <v>1906.0</v>
+        <v>1886.0</v>
       </c>
       <c r="E358" t="s">
-        <v>55</v>
+        <v>350</v>
       </c>
     </row>
     <row r="359">
@@ -6667,10 +7630,10 @@
         <v>6</v>
       </c>
       <c r="D359" t="n">
-        <v>1907.0</v>
+        <v>1887.0</v>
       </c>
       <c r="E359" t="s">
-        <v>48</v>
+        <v>351</v>
       </c>
     </row>
     <row r="360">
@@ -6684,10 +7647,10 @@
         <v>6</v>
       </c>
       <c r="D360" t="n">
-        <v>1908.0</v>
+        <v>1888.0</v>
       </c>
       <c r="E360" t="s">
-        <v>56</v>
+        <v>352</v>
       </c>
     </row>
     <row r="361">
@@ -6701,10 +7664,10 @@
         <v>6</v>
       </c>
       <c r="D361" t="n">
-        <v>1909.0</v>
+        <v>1889.0</v>
       </c>
       <c r="E361" t="s">
-        <v>57</v>
+        <v>353</v>
       </c>
     </row>
     <row r="362">
@@ -6718,10 +7681,10 @@
         <v>6</v>
       </c>
       <c r="D362" t="n">
-        <v>1910.0</v>
+        <v>1890.0</v>
       </c>
       <c r="E362" t="s">
-        <v>58</v>
+        <v>354</v>
       </c>
     </row>
     <row r="363">
@@ -6735,10 +7698,10 @@
         <v>6</v>
       </c>
       <c r="D363" t="n">
-        <v>1911.0</v>
+        <v>1891.0</v>
       </c>
       <c r="E363" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
     </row>
     <row r="364">
@@ -6752,10 +7715,10 @@
         <v>6</v>
       </c>
       <c r="D364" t="n">
-        <v>1912.0</v>
+        <v>1892.0</v>
       </c>
       <c r="E364" t="s">
-        <v>60</v>
+        <v>356</v>
       </c>
     </row>
     <row r="365">
@@ -6769,10 +7732,10 @@
         <v>6</v>
       </c>
       <c r="D365" t="n">
-        <v>1913.0</v>
+        <v>1893.0</v>
       </c>
       <c r="E365" t="s">
-        <v>61</v>
+        <v>357</v>
       </c>
     </row>
     <row r="366">
@@ -6786,10 +7749,10 @@
         <v>6</v>
       </c>
       <c r="D366" t="n">
-        <v>1914.0</v>
+        <v>1894.0</v>
       </c>
       <c r="E366" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
     </row>
     <row r="367">
@@ -6803,10 +7766,10 @@
         <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>1915.0</v>
+        <v>1895.0</v>
       </c>
       <c r="E367" t="s">
-        <v>58</v>
+        <v>359</v>
       </c>
     </row>
     <row r="368">
@@ -6820,10 +7783,10 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>1916.0</v>
+        <v>1896.0</v>
       </c>
       <c r="E368" t="s">
-        <v>63</v>
+        <v>360</v>
       </c>
     </row>
     <row r="369">
@@ -6837,10 +7800,10 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>1917.0</v>
+        <v>1897.0</v>
       </c>
       <c r="E369" t="s">
-        <v>64</v>
+        <v>361</v>
       </c>
     </row>
     <row r="370">
@@ -6854,10 +7817,10 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>1918.0</v>
+        <v>1898.0</v>
       </c>
       <c r="E370" t="s">
-        <v>65</v>
+        <v>362</v>
       </c>
     </row>
     <row r="371">
@@ -6871,10 +7834,10 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>1919.0</v>
+        <v>1899.0</v>
       </c>
       <c r="E371" t="s">
-        <v>66</v>
+        <v>363</v>
       </c>
     </row>
     <row r="372">
@@ -6888,10 +7851,10 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>1920.0</v>
+        <v>1900.0</v>
       </c>
       <c r="E372" t="s">
-        <v>67</v>
+        <v>364</v>
       </c>
     </row>
     <row r="373">
@@ -6905,10 +7868,10 @@
         <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>1921.0</v>
+        <v>1901.0</v>
       </c>
       <c r="E373" t="s">
-        <v>68</v>
+        <v>365</v>
       </c>
     </row>
     <row r="374">
@@ -6922,10 +7885,10 @@
         <v>6</v>
       </c>
       <c r="D374" t="n">
-        <v>1922.0</v>
+        <v>1902.0</v>
       </c>
       <c r="E374" t="s">
-        <v>69</v>
+        <v>366</v>
       </c>
     </row>
     <row r="375">
@@ -6939,10 +7902,10 @@
         <v>6</v>
       </c>
       <c r="D375" t="n">
-        <v>1923.0</v>
+        <v>1903.0</v>
       </c>
       <c r="E375" t="s">
-        <v>70</v>
+        <v>367</v>
       </c>
     </row>
     <row r="376">
@@ -6956,10 +7919,10 @@
         <v>6</v>
       </c>
       <c r="D376" t="n">
-        <v>1924.0</v>
+        <v>1904.0</v>
       </c>
       <c r="E376" t="s">
-        <v>71</v>
+        <v>368</v>
       </c>
     </row>
     <row r="377">
@@ -6973,10 +7936,10 @@
         <v>6</v>
       </c>
       <c r="D377" t="n">
-        <v>1925.0</v>
+        <v>1905.0</v>
       </c>
       <c r="E377" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
     </row>
     <row r="378">
@@ -6990,10 +7953,10 @@
         <v>6</v>
       </c>
       <c r="D378" t="n">
-        <v>1926.0</v>
+        <v>1906.0</v>
       </c>
       <c r="E378" t="s">
-        <v>73</v>
+        <v>370</v>
       </c>
     </row>
     <row r="379">
@@ -7007,10 +7970,10 @@
         <v>6</v>
       </c>
       <c r="D379" t="n">
-        <v>1927.0</v>
+        <v>1907.0</v>
       </c>
       <c r="E379" t="s">
-        <v>74</v>
+        <v>363</v>
       </c>
     </row>
     <row r="380">
@@ -7024,10 +7987,10 @@
         <v>6</v>
       </c>
       <c r="D380" t="n">
-        <v>1928.0</v>
+        <v>1908.0</v>
       </c>
       <c r="E380" t="s">
-        <v>75</v>
+        <v>371</v>
       </c>
     </row>
     <row r="381">
@@ -7041,10 +8004,10 @@
         <v>6</v>
       </c>
       <c r="D381" t="n">
-        <v>1929.0</v>
+        <v>1909.0</v>
       </c>
       <c r="E381" t="s">
-        <v>76</v>
+        <v>372</v>
       </c>
     </row>
     <row r="382">
@@ -7058,10 +8021,10 @@
         <v>6</v>
       </c>
       <c r="D382" t="n">
-        <v>1930.0</v>
+        <v>1910.0</v>
       </c>
       <c r="E382" t="s">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="383">
@@ -7075,10 +8038,10 @@
         <v>6</v>
       </c>
       <c r="D383" t="n">
-        <v>1931.0</v>
+        <v>1911.0</v>
       </c>
       <c r="E383" t="s">
-        <v>78</v>
+        <v>374</v>
       </c>
     </row>
     <row r="384">
@@ -7092,10 +8055,10 @@
         <v>6</v>
       </c>
       <c r="D384" t="n">
-        <v>1932.0</v>
+        <v>1912.0</v>
       </c>
       <c r="E384" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="385">
@@ -7109,10 +8072,10 @@
         <v>6</v>
       </c>
       <c r="D385" t="n">
-        <v>1933.0</v>
+        <v>1913.0</v>
       </c>
       <c r="E385" t="s">
-        <v>80</v>
+        <v>376</v>
       </c>
     </row>
     <row r="386">
@@ -7126,10 +8089,10 @@
         <v>6</v>
       </c>
       <c r="D386" t="n">
-        <v>1934.0</v>
+        <v>1914.0</v>
       </c>
       <c r="E386" t="s">
-        <v>81</v>
+        <v>377</v>
       </c>
     </row>
     <row r="387">
@@ -7143,10 +8106,10 @@
         <v>6</v>
       </c>
       <c r="D387" t="n">
-        <v>1935.0</v>
+        <v>1915.0</v>
       </c>
       <c r="E387" t="s">
-        <v>82</v>
+        <v>373</v>
       </c>
     </row>
     <row r="388">
@@ -7160,10 +8123,10 @@
         <v>6</v>
       </c>
       <c r="D388" t="n">
-        <v>1936.0</v>
+        <v>1916.0</v>
       </c>
       <c r="E388" t="s">
-        <v>83</v>
+        <v>378</v>
       </c>
     </row>
     <row r="389">
@@ -7177,10 +8140,10 @@
         <v>6</v>
       </c>
       <c r="D389" t="n">
-        <v>1937.0</v>
+        <v>1917.0</v>
       </c>
       <c r="E389" t="s">
-        <v>84</v>
+        <v>379</v>
       </c>
     </row>
     <row r="390">
@@ -7194,10 +8157,10 @@
         <v>6</v>
       </c>
       <c r="D390" t="n">
-        <v>1938.0</v>
+        <v>1918.0</v>
       </c>
       <c r="E390" t="s">
-        <v>85</v>
+        <v>380</v>
       </c>
     </row>
     <row r="391">
@@ -7211,10 +8174,10 @@
         <v>6</v>
       </c>
       <c r="D391" t="n">
-        <v>1939.0</v>
+        <v>1919.0</v>
       </c>
       <c r="E391" t="s">
-        <v>86</v>
+        <v>381</v>
       </c>
     </row>
     <row r="392">
@@ -7228,10 +8191,10 @@
         <v>6</v>
       </c>
       <c r="D392" t="n">
-        <v>1940.0</v>
+        <v>1920.0</v>
       </c>
       <c r="E392" t="s">
-        <v>87</v>
+        <v>382</v>
       </c>
     </row>
     <row r="393">
@@ -7245,10 +8208,10 @@
         <v>6</v>
       </c>
       <c r="D393" t="n">
-        <v>1941.0</v>
+        <v>1921.0</v>
       </c>
       <c r="E393" t="s">
-        <v>85</v>
+        <v>383</v>
       </c>
     </row>
     <row r="394">
@@ -7262,10 +8225,10 @@
         <v>6</v>
       </c>
       <c r="D394" t="n">
-        <v>1942.0</v>
+        <v>1922.0</v>
       </c>
       <c r="E394" t="s">
-        <v>88</v>
+        <v>384</v>
       </c>
     </row>
     <row r="395">
@@ -7279,10 +8242,10 @@
         <v>6</v>
       </c>
       <c r="D395" t="n">
-        <v>1943.0</v>
+        <v>1923.0</v>
       </c>
       <c r="E395" t="s">
-        <v>89</v>
+        <v>385</v>
       </c>
     </row>
     <row r="396">
@@ -7296,10 +8259,10 @@
         <v>6</v>
       </c>
       <c r="D396" t="n">
-        <v>1944.0</v>
+        <v>1924.0</v>
       </c>
       <c r="E396" t="s">
-        <v>90</v>
+        <v>386</v>
       </c>
     </row>
     <row r="397">
@@ -7313,10 +8276,10 @@
         <v>6</v>
       </c>
       <c r="D397" t="n">
-        <v>1945.0</v>
+        <v>1925.0</v>
       </c>
       <c r="E397" t="s">
-        <v>91</v>
+        <v>387</v>
       </c>
     </row>
     <row r="398">
@@ -7330,10 +8293,10 @@
         <v>6</v>
       </c>
       <c r="D398" t="n">
-        <v>1946.0</v>
+        <v>1926.0</v>
       </c>
       <c r="E398" t="s">
-        <v>92</v>
+        <v>388</v>
       </c>
     </row>
     <row r="399">
@@ -7347,10 +8310,10 @@
         <v>6</v>
       </c>
       <c r="D399" t="n">
-        <v>1947.0</v>
+        <v>1927.0</v>
       </c>
       <c r="E399" t="s">
-        <v>93</v>
+        <v>389</v>
       </c>
     </row>
     <row r="400">
@@ -7364,10 +8327,10 @@
         <v>6</v>
       </c>
       <c r="D400" t="n">
-        <v>1948.0</v>
+        <v>1928.0</v>
       </c>
       <c r="E400" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
     </row>
     <row r="401">
@@ -7381,10 +8344,10 @@
         <v>6</v>
       </c>
       <c r="D401" t="n">
-        <v>1949.0</v>
+        <v>1929.0</v>
       </c>
       <c r="E401" t="s">
-        <v>95</v>
+        <v>391</v>
       </c>
     </row>
     <row r="402">
@@ -7398,10 +8361,10 @@
         <v>6</v>
       </c>
       <c r="D402" t="n">
-        <v>1950.0</v>
+        <v>1930.0</v>
       </c>
       <c r="E402" t="s">
-        <v>96</v>
+        <v>392</v>
       </c>
     </row>
     <row r="403">
@@ -7415,10 +8378,10 @@
         <v>6</v>
       </c>
       <c r="D403" t="n">
-        <v>1951.0</v>
+        <v>1931.0</v>
       </c>
       <c r="E403" t="s">
-        <v>97</v>
+        <v>393</v>
       </c>
     </row>
     <row r="404">
@@ -7432,10 +8395,10 @@
         <v>6</v>
       </c>
       <c r="D404" t="n">
-        <v>1952.0</v>
+        <v>1932.0</v>
       </c>
       <c r="E404" t="s">
-        <v>98</v>
+        <v>394</v>
       </c>
     </row>
     <row r="405">
@@ -7449,10 +8412,10 @@
         <v>6</v>
       </c>
       <c r="D405" t="n">
-        <v>1953.0</v>
+        <v>1933.0</v>
       </c>
       <c r="E405" t="s">
-        <v>99</v>
+        <v>395</v>
       </c>
     </row>
     <row r="406">
@@ -7466,10 +8429,10 @@
         <v>6</v>
       </c>
       <c r="D406" t="n">
-        <v>1954.0</v>
+        <v>1934.0</v>
       </c>
       <c r="E406" t="s">
-        <v>100</v>
+        <v>396</v>
       </c>
     </row>
     <row r="407">
@@ -7483,10 +8446,10 @@
         <v>6</v>
       </c>
       <c r="D407" t="n">
-        <v>1955.0</v>
+        <v>1935.0</v>
       </c>
       <c r="E407" t="s">
-        <v>101</v>
+        <v>397</v>
       </c>
     </row>
     <row r="408">
@@ -7500,10 +8463,10 @@
         <v>6</v>
       </c>
       <c r="D408" t="n">
-        <v>1956.0</v>
+        <v>1936.0</v>
       </c>
       <c r="E408" t="s">
-        <v>102</v>
+        <v>398</v>
       </c>
     </row>
     <row r="409">
@@ -7517,10 +8480,10 @@
         <v>6</v>
       </c>
       <c r="D409" t="n">
-        <v>1957.0</v>
+        <v>1937.0</v>
       </c>
       <c r="E409" t="s">
-        <v>103</v>
+        <v>399</v>
       </c>
     </row>
     <row r="410">
@@ -7534,10 +8497,10 @@
         <v>6</v>
       </c>
       <c r="D410" t="n">
-        <v>1958.0</v>
+        <v>1938.0</v>
       </c>
       <c r="E410" t="s">
-        <v>104</v>
+        <v>400</v>
       </c>
     </row>
     <row r="411">
@@ -7551,10 +8514,10 @@
         <v>6</v>
       </c>
       <c r="D411" t="n">
-        <v>1959.0</v>
+        <v>1939.0</v>
       </c>
       <c r="E411" t="s">
-        <v>105</v>
+        <v>401</v>
       </c>
     </row>
     <row r="412">
@@ -7568,10 +8531,10 @@
         <v>6</v>
       </c>
       <c r="D412" t="n">
-        <v>1960.0</v>
+        <v>1940.0</v>
       </c>
       <c r="E412" t="s">
-        <v>106</v>
+        <v>402</v>
       </c>
     </row>
     <row r="413">
@@ -7585,10 +8548,10 @@
         <v>6</v>
       </c>
       <c r="D413" t="n">
-        <v>1961.0</v>
+        <v>1941.0</v>
       </c>
       <c r="E413" t="s">
-        <v>107</v>
+        <v>400</v>
       </c>
     </row>
     <row r="414">
@@ -7602,10 +8565,10 @@
         <v>6</v>
       </c>
       <c r="D414" t="n">
-        <v>1962.0</v>
+        <v>1942.0</v>
       </c>
       <c r="E414" t="s">
-        <v>108</v>
+        <v>403</v>
       </c>
     </row>
     <row r="415">
@@ -7619,10 +8582,10 @@
         <v>6</v>
       </c>
       <c r="D415" t="n">
-        <v>1963.0</v>
+        <v>1943.0</v>
       </c>
       <c r="E415" t="s">
-        <v>109</v>
+        <v>404</v>
       </c>
     </row>
     <row r="416">
@@ -7636,10 +8599,10 @@
         <v>6</v>
       </c>
       <c r="D416" t="n">
-        <v>1964.0</v>
+        <v>1944.0</v>
       </c>
       <c r="E416" t="s">
-        <v>110</v>
+        <v>405</v>
       </c>
     </row>
     <row r="417">
@@ -7653,10 +8616,10 @@
         <v>6</v>
       </c>
       <c r="D417" t="n">
-        <v>1965.0</v>
+        <v>1945.0</v>
       </c>
       <c r="E417" t="s">
-        <v>111</v>
+        <v>406</v>
       </c>
     </row>
     <row r="418">
@@ -7670,10 +8633,10 @@
         <v>6</v>
       </c>
       <c r="D418" t="n">
-        <v>1966.0</v>
+        <v>1946.0</v>
       </c>
       <c r="E418" t="s">
-        <v>112</v>
+        <v>407</v>
       </c>
     </row>
     <row r="419">
@@ -7687,10 +8650,10 @@
         <v>6</v>
       </c>
       <c r="D419" t="n">
-        <v>1967.0</v>
+        <v>1947.0</v>
       </c>
       <c r="E419" t="s">
-        <v>113</v>
+        <v>408</v>
       </c>
     </row>
     <row r="420">
@@ -7704,10 +8667,10 @@
         <v>6</v>
       </c>
       <c r="D420" t="n">
-        <v>1968.0</v>
+        <v>1948.0</v>
       </c>
       <c r="E420" t="s">
-        <v>114</v>
+        <v>409</v>
       </c>
     </row>
     <row r="421">
@@ -7721,10 +8684,10 @@
         <v>6</v>
       </c>
       <c r="D421" t="n">
-        <v>1969.0</v>
+        <v>1949.0</v>
       </c>
       <c r="E421" t="s">
-        <v>115</v>
+        <v>410</v>
       </c>
     </row>
     <row r="422">
@@ -7738,10 +8701,10 @@
         <v>6</v>
       </c>
       <c r="D422" t="n">
-        <v>1970.0</v>
+        <v>1950.0</v>
       </c>
       <c r="E422" t="s">
-        <v>116</v>
+        <v>411</v>
       </c>
     </row>
     <row r="423">
@@ -7755,10 +8718,10 @@
         <v>6</v>
       </c>
       <c r="D423" t="n">
-        <v>1971.0</v>
+        <v>1951.0</v>
       </c>
       <c r="E423" t="s">
-        <v>117</v>
+        <v>412</v>
       </c>
     </row>
     <row r="424">
@@ -7772,10 +8735,10 @@
         <v>6</v>
       </c>
       <c r="D424" t="n">
-        <v>1972.0</v>
+        <v>1952.0</v>
       </c>
       <c r="E424" t="s">
-        <v>118</v>
+        <v>413</v>
       </c>
     </row>
     <row r="425">
@@ -7789,10 +8752,10 @@
         <v>6</v>
       </c>
       <c r="D425" t="n">
-        <v>1973.0</v>
+        <v>1953.0</v>
       </c>
       <c r="E425" t="s">
-        <v>119</v>
+        <v>414</v>
       </c>
     </row>
     <row r="426">
@@ -7806,10 +8769,10 @@
         <v>6</v>
       </c>
       <c r="D426" t="n">
-        <v>1974.0</v>
+        <v>1954.0</v>
       </c>
       <c r="E426" t="s">
-        <v>120</v>
+        <v>415</v>
       </c>
     </row>
     <row r="427">
@@ -7823,10 +8786,10 @@
         <v>6</v>
       </c>
       <c r="D427" t="n">
-        <v>1975.0</v>
+        <v>1955.0</v>
       </c>
       <c r="E427" t="s">
-        <v>121</v>
+        <v>416</v>
       </c>
     </row>
     <row r="428">
@@ -7840,10 +8803,10 @@
         <v>6</v>
       </c>
       <c r="D428" t="n">
-        <v>1976.0</v>
+        <v>1956.0</v>
       </c>
       <c r="E428" t="s">
-        <v>122</v>
+        <v>417</v>
       </c>
     </row>
     <row r="429">
@@ -7857,10 +8820,10 @@
         <v>6</v>
       </c>
       <c r="D429" t="n">
-        <v>1977.0</v>
+        <v>1957.0</v>
       </c>
       <c r="E429" t="s">
-        <v>123</v>
+        <v>418</v>
       </c>
     </row>
     <row r="430">
@@ -7874,10 +8837,10 @@
         <v>6</v>
       </c>
       <c r="D430" t="n">
-        <v>1978.0</v>
+        <v>1958.0</v>
       </c>
       <c r="E430" t="s">
-        <v>124</v>
+        <v>419</v>
       </c>
     </row>
     <row r="431">
@@ -7891,10 +8854,10 @@
         <v>6</v>
       </c>
       <c r="D431" t="n">
-        <v>1979.0</v>
+        <v>1959.0</v>
       </c>
       <c r="E431" t="s">
-        <v>125</v>
+        <v>420</v>
       </c>
     </row>
     <row r="432">
@@ -7908,10 +8871,10 @@
         <v>6</v>
       </c>
       <c r="D432" t="n">
-        <v>1980.0</v>
+        <v>1960.0</v>
       </c>
       <c r="E432" t="s">
-        <v>126</v>
+        <v>421</v>
       </c>
     </row>
     <row r="433">
@@ -7925,10 +8888,10 @@
         <v>6</v>
       </c>
       <c r="D433" t="n">
-        <v>1981.0</v>
+        <v>1961.0</v>
       </c>
       <c r="E433" t="s">
-        <v>127</v>
+        <v>422</v>
       </c>
     </row>
     <row r="434">
@@ -7942,10 +8905,10 @@
         <v>6</v>
       </c>
       <c r="D434" t="n">
-        <v>1982.0</v>
+        <v>1962.0</v>
       </c>
       <c r="E434" t="s">
-        <v>128</v>
+        <v>423</v>
       </c>
     </row>
     <row r="435">
@@ -7959,10 +8922,10 @@
         <v>6</v>
       </c>
       <c r="D435" t="n">
-        <v>1983.0</v>
+        <v>1963.0</v>
       </c>
       <c r="E435" t="s">
-        <v>129</v>
+        <v>424</v>
       </c>
     </row>
     <row r="436">
@@ -7976,10 +8939,10 @@
         <v>6</v>
       </c>
       <c r="D436" t="n">
-        <v>1984.0</v>
+        <v>1964.0</v>
       </c>
       <c r="E436" t="s">
-        <v>130</v>
+        <v>425</v>
       </c>
     </row>
     <row r="437">
@@ -7993,10 +8956,10 @@
         <v>6</v>
       </c>
       <c r="D437" t="n">
-        <v>1985.0</v>
+        <v>1965.0</v>
       </c>
       <c r="E437" t="s">
-        <v>131</v>
+        <v>426</v>
       </c>
     </row>
     <row r="438">
@@ -8010,10 +8973,10 @@
         <v>6</v>
       </c>
       <c r="D438" t="n">
-        <v>1986.0</v>
+        <v>1966.0</v>
       </c>
       <c r="E438" t="s">
-        <v>132</v>
+        <v>427</v>
       </c>
     </row>
     <row r="439">
@@ -8027,10 +8990,10 @@
         <v>6</v>
       </c>
       <c r="D439" t="n">
-        <v>1987.0</v>
+        <v>1967.0</v>
       </c>
       <c r="E439" t="s">
-        <v>133</v>
+        <v>428</v>
       </c>
     </row>
     <row r="440">
@@ -8044,10 +9007,10 @@
         <v>6</v>
       </c>
       <c r="D440" t="n">
-        <v>1988.0</v>
+        <v>1968.0</v>
       </c>
       <c r="E440" t="s">
-        <v>134</v>
+        <v>429</v>
       </c>
     </row>
     <row r="441">
@@ -8061,10 +9024,10 @@
         <v>6</v>
       </c>
       <c r="D441" t="n">
-        <v>1989.0</v>
+        <v>1969.0</v>
       </c>
       <c r="E441" t="s">
-        <v>135</v>
+        <v>430</v>
       </c>
     </row>
     <row r="442">
@@ -8078,10 +9041,10 @@
         <v>6</v>
       </c>
       <c r="D442" t="n">
-        <v>1990.0</v>
+        <v>1970.0</v>
       </c>
       <c r="E442" t="s">
-        <v>136</v>
+        <v>431</v>
       </c>
     </row>
     <row r="443">
@@ -8095,10 +9058,10 @@
         <v>6</v>
       </c>
       <c r="D443" t="n">
-        <v>1991.0</v>
+        <v>1971.0</v>
       </c>
       <c r="E443" t="s">
-        <v>137</v>
+        <v>432</v>
       </c>
     </row>
     <row r="444">
@@ -8112,10 +9075,10 @@
         <v>6</v>
       </c>
       <c r="D444" t="n">
-        <v>1992.0</v>
+        <v>1972.0</v>
       </c>
       <c r="E444" t="s">
-        <v>138</v>
+        <v>433</v>
       </c>
     </row>
     <row r="445">
@@ -8129,10 +9092,10 @@
         <v>6</v>
       </c>
       <c r="D445" t="n">
-        <v>1993.0</v>
+        <v>1973.0</v>
       </c>
       <c r="E445" t="s">
-        <v>139</v>
+        <v>434</v>
       </c>
     </row>
     <row r="446">
@@ -8146,10 +9109,10 @@
         <v>6</v>
       </c>
       <c r="D446" t="n">
-        <v>1994.0</v>
+        <v>1974.0</v>
       </c>
       <c r="E446" t="s">
-        <v>140</v>
+        <v>435</v>
       </c>
     </row>
     <row r="447">
@@ -8163,10 +9126,10 @@
         <v>6</v>
       </c>
       <c r="D447" t="n">
-        <v>1995.0</v>
+        <v>1975.0</v>
       </c>
       <c r="E447" t="s">
-        <v>141</v>
+        <v>436</v>
       </c>
     </row>
     <row r="448">
@@ -8180,10 +9143,10 @@
         <v>6</v>
       </c>
       <c r="D448" t="n">
-        <v>1996.0</v>
+        <v>1976.0</v>
       </c>
       <c r="E448" t="s">
-        <v>142</v>
+        <v>437</v>
       </c>
     </row>
     <row r="449">
@@ -8197,10 +9160,10 @@
         <v>6</v>
       </c>
       <c r="D449" t="n">
-        <v>1997.0</v>
+        <v>1977.0</v>
       </c>
       <c r="E449" t="s">
-        <v>143</v>
+        <v>438</v>
       </c>
     </row>
     <row r="450">
@@ -8214,10 +9177,10 @@
         <v>6</v>
       </c>
       <c r="D450" t="n">
-        <v>1998.0</v>
+        <v>1978.0</v>
       </c>
       <c r="E450" t="s">
-        <v>144</v>
+        <v>439</v>
       </c>
     </row>
     <row r="451">
@@ -8231,10 +9194,10 @@
         <v>6</v>
       </c>
       <c r="D451" t="n">
-        <v>1999.0</v>
+        <v>1979.0</v>
       </c>
       <c r="E451" t="s">
-        <v>145</v>
+        <v>440</v>
       </c>
     </row>
     <row r="452">
@@ -8248,10 +9211,10 @@
         <v>6</v>
       </c>
       <c r="D452" t="n">
-        <v>2000.0</v>
+        <v>1980.0</v>
       </c>
       <c r="E452" t="s">
-        <v>146</v>
+        <v>441</v>
       </c>
     </row>
     <row r="453">
@@ -8265,10 +9228,10 @@
         <v>6</v>
       </c>
       <c r="D453" t="n">
-        <v>2001.0</v>
+        <v>1981.0</v>
       </c>
       <c r="E453" t="s">
-        <v>147</v>
+        <v>442</v>
       </c>
     </row>
     <row r="454">
@@ -8282,10 +9245,10 @@
         <v>6</v>
       </c>
       <c r="D454" t="n">
-        <v>2002.0</v>
+        <v>1982.0</v>
       </c>
       <c r="E454" t="s">
-        <v>148</v>
+        <v>443</v>
       </c>
     </row>
     <row r="455">
@@ -8299,10 +9262,10 @@
         <v>6</v>
       </c>
       <c r="D455" t="n">
-        <v>2003.0</v>
+        <v>1983.0</v>
       </c>
       <c r="E455" t="s">
-        <v>149</v>
+        <v>444</v>
       </c>
     </row>
     <row r="456">
@@ -8316,10 +9279,10 @@
         <v>6</v>
       </c>
       <c r="D456" t="n">
-        <v>2004.0</v>
+        <v>1984.0</v>
       </c>
       <c r="E456" t="s">
-        <v>150</v>
+        <v>445</v>
       </c>
     </row>
     <row r="457">
@@ -8333,10 +9296,10 @@
         <v>6</v>
       </c>
       <c r="D457" t="n">
-        <v>2005.0</v>
+        <v>1985.0</v>
       </c>
       <c r="E457" t="s">
-        <v>151</v>
+        <v>446</v>
       </c>
     </row>
     <row r="458">
@@ -8350,10 +9313,10 @@
         <v>6</v>
       </c>
       <c r="D458" t="n">
-        <v>2006.0</v>
+        <v>1986.0</v>
       </c>
       <c r="E458" t="s">
-        <v>152</v>
+        <v>447</v>
       </c>
     </row>
     <row r="459">
@@ -8367,10 +9330,10 @@
         <v>6</v>
       </c>
       <c r="D459" t="n">
-        <v>2007.0</v>
+        <v>1987.0</v>
       </c>
       <c r="E459" t="s">
-        <v>153</v>
+        <v>448</v>
       </c>
     </row>
     <row r="460">
@@ -8384,10 +9347,10 @@
         <v>6</v>
       </c>
       <c r="D460" t="n">
-        <v>2008.0</v>
+        <v>1988.0</v>
       </c>
       <c r="E460" t="s">
-        <v>154</v>
+        <v>449</v>
       </c>
     </row>
     <row r="461">
@@ -8401,10 +9364,10 @@
         <v>6</v>
       </c>
       <c r="D461" t="n">
-        <v>2009.0</v>
+        <v>1989.0</v>
       </c>
       <c r="E461" t="s">
-        <v>155</v>
+        <v>450</v>
       </c>
     </row>
     <row r="462">
@@ -8418,10 +9381,452 @@
         <v>6</v>
       </c>
       <c r="D462" t="n">
+        <v>1990.0</v>
+      </c>
+      <c r="E462" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1991.0</v>
+      </c>
+      <c r="E463" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" t="n">
+        <v>1992.0</v>
+      </c>
+      <c r="E464" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1993.0</v>
+      </c>
+      <c r="E465" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1994.0</v>
+      </c>
+      <c r="E466" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1995.0</v>
+      </c>
+      <c r="E467" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" t="n">
+        <v>1996.0</v>
+      </c>
+      <c r="E468" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1997.0</v>
+      </c>
+      <c r="E469" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1998.0</v>
+      </c>
+      <c r="E470" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1999.0</v>
+      </c>
+      <c r="E471" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="E472" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" t="n">
+        <v>2001.0</v>
+      </c>
+      <c r="E473" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" t="n">
+        <v>2002.0</v>
+      </c>
+      <c r="E474" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" t="n">
+        <v>2003.0</v>
+      </c>
+      <c r="E475" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" t="n">
+        <v>2004.0</v>
+      </c>
+      <c r="E476" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" t="n">
+        <v>2005.0</v>
+      </c>
+      <c r="E477" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" t="n">
+        <v>2006.0</v>
+      </c>
+      <c r="E478" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="n">
+        <v>2007.0</v>
+      </c>
+      <c r="E479" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" t="n">
+        <v>2008.0</v>
+      </c>
+      <c r="E480" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E481" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B482" t="s">
+        <v>5</v>
+      </c>
+      <c r="C482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482" t="n">
         <v>2010.0</v>
       </c>
-      <c r="E462" t="s">
-        <v>156</v>
+      <c r="E482" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B483" t="s">
+        <v>5</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E483" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B484" t="s">
+        <v>5</v>
+      </c>
+      <c r="C484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E484" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B485" t="s">
+        <v>5</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E485" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B486" t="s">
+        <v>5</v>
+      </c>
+      <c r="C486" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E486" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B487" t="s">
+        <v>5</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E487" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>620.0</v>
+      </c>
+      <c r="B488" t="s">
+        <v>5</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E488" t="s">
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -8439,50 +9844,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>478</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>160</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
-        <v>166</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s">
-        <v>168</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
